--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F672B8-3663-4E86-AE10-B26B99053D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0A867-0F76-4E6A-B8E5-3E4BEF548F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="15" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,42 @@
   </si>
   <si>
     <t>PWM周期(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧度制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ualpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubeta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:N24"/>
+  <dimension ref="A9:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +740,7 @@
         <v>0.86602540372810288</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ref="A17" si="6">C17*G17 - D17*H17</f>
         <v>-0.49999999987802951</v>
@@ -735,7 +771,7 @@
         <v>0.49999999987802951</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ref="A18:A24" si="8">C18*G18 - D18*H18</f>
         <v>1.6900690807779284E-10</v>
@@ -766,7 +802,7 @@
         <v>-1.6900690807779284E-10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="8"/>
         <v>0.50000000017075841</v>
@@ -797,7 +833,7 @@
         <v>-0.50000000017075841</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="8"/>
         <v>0.86602540389711002</v>
@@ -828,7 +864,7 @@
         <v>-0.86602540389711002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -859,7 +895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="8"/>
         <v>0.86602540364359926</v>
@@ -890,7 +926,7 @@
         <v>-0.86602540364359926</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="8"/>
         <v>0.49999999973166565</v>
@@ -921,7 +957,7 @@
         <v>-0.49999999973166565</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="8"/>
         <v>-3.3801381615558568E-10</v>
@@ -950,6 +986,407 @@
       <c r="H24">
         <f t="shared" si="12"/>
         <v>3.3801381615558568E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>C29/57.29577951</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>COS(D29)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>SIN(D29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>E29*B29</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>F29*B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <f>C30/57.29577951</f>
+        <v>0.52359877562646673</v>
+      </c>
+      <c r="E30">
+        <f>COS(D30)</f>
+        <v>0.86602540377035475</v>
+      </c>
+      <c r="F30">
+        <f>SIN(D30)</f>
+        <v>0.50000000002439404</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G41" si="13">E30*B30</f>
+        <v>0.86602540377035475</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H41" si="14">F30*B30</f>
+        <v>0.50000000002439404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D41" si="15">C31/57.29577951</f>
+        <v>1.0471975512529335</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E41" si="16">COS(D31)</f>
+        <v>0.49999999995121186</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F41" si="17">SIN(D31)</f>
+        <v>0.86602540381260651</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="13"/>
+        <v>0.49999999995121186</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>0.86602540381260651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="15"/>
+        <v>1.5707963268794001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="16"/>
+        <v>-8.4503454038896419E-11</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="13"/>
+        <v>-8.4503454038896419E-11</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="15"/>
+        <v>2.0943951025058669</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="16"/>
+        <v>-0.50000000009757628</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="17"/>
+        <v>0.86602540372810288</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="13"/>
+        <v>-0.50000000009757628</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="14"/>
+        <v>0.86602540372810288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="15"/>
+        <v>2.6179938781323338</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="16"/>
+        <v>-0.86602540385485838</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="17"/>
+        <v>0.49999999987802951</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="13"/>
+        <v>-0.86602540385485838</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="14"/>
+        <v>0.49999999987802951</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>180</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="15"/>
+        <v>3.1415926537588001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="17"/>
+        <v>-1.6900690807779284E-10</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="14"/>
+        <v>-1.6900690807779284E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>210</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="15"/>
+        <v>3.665191429385267</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="16"/>
+        <v>-0.86602540368585124</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="17"/>
+        <v>-0.50000000017075841</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>-0.86602540368585124</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>-0.50000000017075841</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="15"/>
+        <v>4.1887902050117338</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="16"/>
+        <v>-0.49999999980484738</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="17"/>
+        <v>-0.86602540389711002</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="13"/>
+        <v>-0.49999999980484738</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>-0.86602540389711002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>270</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>4.7123889806382007</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="16"/>
+        <v>2.5351080620589911E-10</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="13"/>
+        <v>2.5351080620589911E-10</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>300</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="15"/>
+        <v>5.2359877562646675</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.50000000024394098</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="17"/>
+        <v>-0.86602540364359926</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="13"/>
+        <v>0.50000000024394098</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="14"/>
+        <v>-0.86602540364359926</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>330</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="15"/>
+        <v>5.7595865318911335</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="16"/>
+        <v>0.86602540393936156</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>-0.49999999973166565</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="13"/>
+        <v>0.86602540393936156</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="14"/>
+        <v>-0.49999999973166565</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>360</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="15"/>
+        <v>6.2831853075176003</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="17"/>
+        <v>3.3801381615558568E-10</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>3.3801381615558568E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0A867-0F76-4E6A-B8E5-3E4BEF548F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B508E-0775-4AA5-851D-F3B56DFDD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断扇区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ualpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,7 +112,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>section</t>
+    <t>扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ualpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubeta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS(us)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用时长(us)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考(目标)矢量的投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模长/Uout/目标矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止坐标系下的投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副矢量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基矢量的大小：2/3U_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不失真最大半径：UDC/sqrt(3) = 13.8564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算换相点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ta = (Ts-T主 - T副)/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb = Ta+T主/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tc=Tb+T副/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导通时间/作用时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,6 +244,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,12 +263,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,17 +313,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -207,16 +358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>144356</xdr:rowOff>
+      <xdr:rowOff>106256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -239,8 +390,580 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="57150"/>
+          <a:off x="504825" y="19050"/>
           <a:ext cx="5362575" cy="1354031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>93991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399454</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE403AA-5330-2F2B-9C1A-1EB99AD91812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="10190491"/>
+          <a:ext cx="2237779" cy="1801484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132335</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E9277-6E58-B30D-CBE8-97AF0C02BB85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847851" y="12277725"/>
+          <a:ext cx="1027684" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B249DCF-C89B-9F0F-7397-E660307517BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="12639675"/>
+          <a:ext cx="400050" cy="309021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>155669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25BF33B-EB24-2F4D-C144-DEB62074A706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="13563600"/>
+          <a:ext cx="952500" cy="308069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BF0536-6DE2-9A69-0A1F-88F5DC4857B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="13925550"/>
+          <a:ext cx="1095375" cy="306705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>137571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1CE12C-128C-4EBB-A977-6006E65C7AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="14449425"/>
+          <a:ext cx="400050" cy="309021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE258E84-348E-A517-AB95-DBE1A13A4249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="14820900"/>
+          <a:ext cx="1114425" cy="324821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB89AE98-BD38-4DA6-AC6F-1537FD782C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="15373350"/>
+          <a:ext cx="1095375" cy="306705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>141890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D77F9D5-C128-CF38-DA64-1CE806BC9389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="15716250"/>
+          <a:ext cx="514350" cy="313340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>172421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910F646E-C636-4F37-9E54-17E55B36CB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="16278225"/>
+          <a:ext cx="1114425" cy="324821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>155507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BABD2A-6437-350E-3E89-C0EB512908E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800226" y="16611601"/>
+          <a:ext cx="1190624" cy="336481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>160940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9719FC-E0FD-45AF-8F88-A90D3EE74B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105026" y="17183100"/>
+          <a:ext cx="514350" cy="313340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>155669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18D57C4-9577-4920-B1CD-A959C0314087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="17545050"/>
+          <a:ext cx="952500" cy="308069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -515,885 +1238,2981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:N44"/>
+  <dimension ref="B1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+      <selection activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>C12*G12 - D12*H12</f>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <f>G12*K12 - H12*L12</f>
         <v>0</v>
       </c>
-      <c r="B12">
-        <f>C12*H12+D12*G12</f>
+      <c r="F12" s="1">
+        <f>G12*L12+H12*K12</f>
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="F12">
-        <f>E12/57.29577951</f>
+      <c r="J12" s="1">
+        <f>I12/57.29577951</f>
         <v>0</v>
       </c>
-      <c r="G12">
-        <f>COS(F12)</f>
+      <c r="K12" s="1">
+        <f>COS(J12)</f>
         <v>1</v>
       </c>
-      <c r="H12">
-        <f>SIN(F12)</f>
+      <c r="L12" s="1">
+        <f>SIN(J12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>C13*G13 - D13*H13</f>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <f>G13*K13 - H13*L13</f>
         <v>-0.50000000002439404</v>
       </c>
-      <c r="B13">
-        <f>C13*H13+D13*G13</f>
+      <c r="F13" s="1">
+        <f>G13*L13+H13*K13</f>
         <v>0.86602540377035475</v>
       </c>
-      <c r="C13">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="I13" s="1">
         <v>30</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F17" si="0">E13/57.29577951</f>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13:J17" si="0">I13/57.29577951</f>
         <v>0.52359877562646673</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G17" si="1">COS(F13)</f>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13:K17" si="1">COS(J13)</f>
         <v>0.86602540377035475</v>
       </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="2">SIN(F13)</f>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="2">SIN(J13)</f>
         <v>0.50000000002439404</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" ref="A14:A16" si="3">C14*G14 - D14*H14</f>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E16" si="3">G14*K14 - H14*L14</f>
         <v>-0.86602540381260651</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B16" si="4">C14*H14+D14*G14</f>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F16" si="4">G14*L14+H14*K14</f>
         <v>0.49999999995121186</v>
       </c>
-      <c r="C14">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="I14" s="1">
         <v>60</v>
       </c>
-      <c r="F14">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>1.0471975512529335</v>
       </c>
-      <c r="G14">
+      <c r="K14" s="1">
         <f t="shared" si="1"/>
         <v>0.49999999995121186</v>
       </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H17" si="5">SIN(F14)</f>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:L17" si="5">SIN(J14)</f>
         <v>0.86602540381260651</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="B15">
-        <f>C15*H15+D15*G15</f>
+      <c r="F15" s="1">
+        <f>G15*L15+H15*K15</f>
         <v>-8.4503454038896419E-11</v>
       </c>
-      <c r="C15">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="I15" s="1">
         <v>90</v>
       </c>
-      <c r="F15">
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>1.5707963268794001</v>
       </c>
-      <c r="G15">
+      <c r="K15" s="1">
         <f t="shared" si="1"/>
         <v>-8.4503454038896419E-11</v>
       </c>
-      <c r="H15">
+      <c r="L15" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
         <f t="shared" si="3"/>
         <v>-0.86602540372810288</v>
       </c>
-      <c r="B16">
+      <c r="F16" s="1">
         <f t="shared" si="4"/>
         <v>-0.50000000009757628</v>
       </c>
-      <c r="C16">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="I16" s="1">
         <v>120</v>
       </c>
-      <c r="F16">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>2.0943951025058669</v>
       </c>
-      <c r="G16">
+      <c r="K16" s="1">
         <f t="shared" si="1"/>
         <v>-0.50000000009757628</v>
       </c>
-      <c r="H16">
+      <c r="L16" s="1">
         <f t="shared" si="5"/>
         <v>0.86602540372810288</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" ref="A17" si="6">C17*G17 - D17*H17</f>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17" si="6">G17*K17 - H17*L17</f>
         <v>-0.49999999987802951</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17" si="7">C17*H17+D17*G17</f>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17" si="7">G17*L17+H17*K17</f>
         <v>-0.86602540385485838</v>
       </c>
-      <c r="C17">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="I17" s="1">
         <v>150</v>
       </c>
-      <c r="F17">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>2.6179938781323338</v>
       </c>
-      <c r="G17">
+      <c r="K17" s="1">
         <f t="shared" si="1"/>
         <v>-0.86602540385485838</v>
       </c>
-      <c r="H17">
+      <c r="L17" s="1">
         <f t="shared" si="5"/>
         <v>0.49999999987802951</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" ref="A18:A24" si="8">C18*G18 - D18*H18</f>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E24" si="8">G18*K18 - H18*L18</f>
         <v>1.6900690807779284E-10</v>
       </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B24" si="9">C18*H18+D18*G18</f>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F24" si="9">G18*L18+H18*K18</f>
         <v>-1</v>
       </c>
-      <c r="C18">
+      <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="I18" s="1">
         <v>180</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F24" si="10">E18/57.29577951</f>
+      <c r="J18" s="1">
+        <f t="shared" ref="J18:J24" si="10">I18/57.29577951</f>
         <v>3.1415926537588001</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18:G24" si="11">COS(F18)</f>
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:K24" si="11">COS(J18)</f>
         <v>-1</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H24" si="12">SIN(F18)</f>
+      <c r="L18" s="1">
+        <f t="shared" ref="L18:L24" si="12">SIN(J18)</f>
         <v>-1.6900690807779284E-10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="1">
         <f t="shared" si="8"/>
         <v>0.50000000017075841</v>
       </c>
-      <c r="B19">
+      <c r="F19" s="1">
         <f t="shared" si="9"/>
         <v>-0.86602540368585124</v>
       </c>
-      <c r="C19">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="I19" s="1">
         <v>210</v>
       </c>
-      <c r="F19">
+      <c r="J19" s="1">
         <f t="shared" si="10"/>
         <v>3.665191429385267</v>
       </c>
-      <c r="G19">
+      <c r="K19" s="1">
         <f t="shared" si="11"/>
         <v>-0.86602540368585124</v>
       </c>
-      <c r="H19">
+      <c r="L19" s="1">
         <f t="shared" si="12"/>
         <v>-0.50000000017075841</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540389711002</v>
       </c>
-      <c r="B20">
+      <c r="F20" s="1">
         <f t="shared" si="9"/>
         <v>-0.49999999980484738</v>
       </c>
-      <c r="C20">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="I20" s="1">
         <v>240</v>
       </c>
-      <c r="F20">
+      <c r="J20" s="1">
         <f t="shared" si="10"/>
         <v>4.1887902050117338</v>
       </c>
-      <c r="G20">
+      <c r="K20" s="1">
         <f t="shared" si="11"/>
         <v>-0.49999999980484738</v>
       </c>
-      <c r="H20">
+      <c r="L20" s="1">
         <f t="shared" si="12"/>
         <v>-0.86602540389711002</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="F21" s="1">
         <f t="shared" si="9"/>
         <v>2.5351080620589911E-10</v>
       </c>
-      <c r="C21">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="I21" s="1">
         <v>270</v>
       </c>
-      <c r="F21">
+      <c r="J21" s="1">
         <f t="shared" si="10"/>
         <v>4.7123889806382007</v>
       </c>
-      <c r="G21">
+      <c r="K21" s="1">
         <f t="shared" si="11"/>
         <v>2.5351080620589911E-10</v>
       </c>
-      <c r="H21">
+      <c r="L21" s="1">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540364359926</v>
       </c>
-      <c r="B22">
+      <c r="F22" s="1">
         <f t="shared" si="9"/>
         <v>0.50000000024394098</v>
       </c>
-      <c r="C22">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="I22" s="1">
         <v>300</v>
       </c>
-      <c r="F22">
+      <c r="J22" s="1">
         <f t="shared" si="10"/>
         <v>5.2359877562646675</v>
       </c>
-      <c r="G22">
+      <c r="K22" s="1">
         <f t="shared" si="11"/>
         <v>0.50000000024394098</v>
       </c>
-      <c r="H22">
+      <c r="L22" s="1">
         <f t="shared" si="12"/>
         <v>-0.86602540364359926</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="1">
         <f t="shared" si="8"/>
         <v>0.49999999973166565</v>
       </c>
-      <c r="B23">
+      <c r="F23" s="1">
         <f t="shared" si="9"/>
         <v>0.86602540393936156</v>
       </c>
-      <c r="C23">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="I23" s="1">
         <v>330</v>
       </c>
-      <c r="F23">
+      <c r="J23" s="1">
         <f t="shared" si="10"/>
         <v>5.7595865318911335</v>
       </c>
-      <c r="G23">
+      <c r="K23" s="1">
         <f t="shared" si="11"/>
         <v>0.86602540393936156</v>
       </c>
-      <c r="H23">
+      <c r="L23" s="1">
         <f t="shared" si="12"/>
         <v>-0.49999999973166565</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="1">
         <f t="shared" si="8"/>
         <v>-3.3801381615558568E-10</v>
       </c>
-      <c r="B24">
+      <c r="F24" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="I24" s="1">
         <v>360</v>
       </c>
-      <c r="F24">
+      <c r="J24" s="1">
         <f t="shared" si="10"/>
         <v>6.2831853075176003</v>
       </c>
-      <c r="G24">
+      <c r="K24" s="1">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="L24" s="1">
         <f t="shared" si="12"/>
         <v>3.3801381615558568E-10</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="L30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <f>G31/57.29577951</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <f>COS(H31)</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="10">
+        <f>SIN(H31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <f>I31*F31</f>
+        <v>13.856400000000001</v>
+      </c>
+      <c r="L31" s="1">
+        <f>J31*F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G32" s="1">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H32" s="10">
+        <f>G32/57.29577951</f>
+        <v>0.26179938781323336</v>
+      </c>
+      <c r="I32" s="10">
+        <f>COS(H32)</f>
+        <v>0.96592582628542312</v>
+      </c>
+      <c r="J32" s="10">
+        <f>SIN(H32)</f>
+        <v>0.2588190451161248</v>
+      </c>
+      <c r="K32" s="1">
+        <f>I32*F32</f>
+        <v>13.384254619341338</v>
+      </c>
+      <c r="L32" s="1">
+        <f>J32*F32</f>
+        <v>3.5863002167470719</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="10">
+        <f>G33/57.29577951</f>
+        <v>0.52359877562646673</v>
+      </c>
+      <c r="I33" s="10">
+        <f>COS(H33)</f>
+        <v>0.86602540377035475</v>
+      </c>
+      <c r="J33" s="10">
+        <f>SIN(H33)</f>
+        <v>0.50000000002439404</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" ref="K33:K45" si="13">I33*F33</f>
+        <v>11.999994404803545</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ref="L33:L45" si="14">J33*F33</f>
+        <v>6.9282000003380135</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45</v>
+      </c>
+      <c r="H34" s="10">
+        <f>G34/57.29577951</f>
+        <v>0.78539816343970004</v>
+      </c>
+      <c r="I34" s="10">
+        <f>COS(H34)</f>
+        <v>0.70710678115667103</v>
+      </c>
+      <c r="J34" s="10">
+        <f>SIN(H34)</f>
+        <v>0.70710678121642401</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" ref="K34" si="15">I34*F34</f>
+        <v>9.7979544024192968</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" ref="L34" si="16">J34*F34</f>
+        <v>9.7979544032472585</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="9">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G35" s="9">
+        <v>60</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" ref="H35:H55" si="17">G35/57.29577951</f>
+        <v>1.0471975512529335</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" ref="I35:I55" si="18">COS(H35)</f>
+        <v>0.49999999995121186</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" ref="J35:J55" si="19">SIN(H35)</f>
+        <v>0.86602540381260651</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="13"/>
+        <v>6.9281999993239722</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="14"/>
+        <v>11.999994405389002</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>75</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="17"/>
+        <v>1.3089969390661669</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="18"/>
+        <v>0.25881904503450054</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96592582630729429</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" ref="K36:K44" si="20">I36*F36</f>
+        <v>3.5863002156160535</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ref="L36:L44" si="21">J36*F36</f>
+        <v>13.384254619644393</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>90</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5707963268794001</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="18"/>
+        <v>-8.4503454038896419E-11</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.1709136605445644E-9</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="21"/>
+        <v>13.856400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>105</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="17"/>
+        <v>1.8325957146926335</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.2588190451977489</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96592582626355195</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="20"/>
+        <v>-3.5863002178780881</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="21"/>
+        <v>13.384254619038282</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+      <c r="E39" s="9">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G39" s="9">
+        <v>120</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="17"/>
+        <v>2.0943951025058669</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.50000000009757628</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="19"/>
+        <v>0.86602540372810288</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="20"/>
+        <v>-6.9282000013520566</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="21"/>
+        <v>11.999994404218086</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <v>24</v>
+      </c>
+      <c r="F40" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>135</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="17"/>
+        <v>2.3561944903191003</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.7071067812761771</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="19"/>
+        <v>0.70710678109691794</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="20"/>
+        <v>-9.7979544040752202</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="21"/>
+        <v>9.7979544015913334</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>150</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="17"/>
+        <v>2.6179938781323338</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.86602540385485838</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="19"/>
+        <v>0.49999999987802951</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="20"/>
+        <v>-11.99999440597446</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="21"/>
+        <v>6.9281999983099283</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <v>165</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="17"/>
+        <v>2.8797932659455667</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.96592582632916524</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="19"/>
+        <v>0.25881904495287672</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="20"/>
+        <v>-13.384254619947447</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="21"/>
+        <v>3.5863002144850413</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+      <c r="E43" s="9">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G43" s="9">
+        <v>180</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="17"/>
+        <v>3.1415926537588001</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="19"/>
+        <v>-1.6900690807779284E-10</v>
+      </c>
+      <c r="K43" s="9">
+        <f>I43*F43</f>
+        <v>-13.856400000000001</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="21"/>
+        <v>-2.3418273210891289E-9</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>195</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="17"/>
+        <v>3.4033920415720336</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.96592582624168088</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.25881904527937299</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="20"/>
+        <v>-13.384254618735227</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="21"/>
+        <v>-3.5863002190091042</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G45" s="1">
+        <v>210</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="17"/>
+        <v>3.665191429385267</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.86602540368585124</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.50000000017075841</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="13"/>
+        <v>-11.99999440363263</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.928200002366097</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>225</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="17"/>
+        <v>3.9269908171985004</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.70710678103716496</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.70710678133593008</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" ref="K46:K55" si="22">I46*F46</f>
+        <v>-9.7979544007633734</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" ref="L46:L55" si="23">J46*F46</f>
+        <v>-9.7979544049031819</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G47" s="9">
+        <v>240</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="17"/>
+        <v>4.1887902050117338</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.49999999980484738</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.86602540389711002</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="22"/>
+        <v>-6.9281999972958879</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="23"/>
+        <v>-11.999994406559916</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G48" s="9">
+        <v>255</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="17"/>
+        <v>4.4505895928249668</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="18"/>
+        <v>-0.25881904487125262</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.96592582635103641</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="22"/>
+        <v>-3.5863002133540252</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="23"/>
+        <v>-13.384254620250502</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>270</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="17"/>
+        <v>4.7123889806382007</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="18"/>
+        <v>2.5351080620589911E-10</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="22"/>
+        <v>3.5127471351114205E-9</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="23"/>
+        <v>-13.856400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>285</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="17"/>
+        <v>4.9741883684514336</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="18"/>
+        <v>0.25881904536099704</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.96592582621980982</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="22"/>
+        <v>3.5863002201401195</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="23"/>
+        <v>-13.384254618432173</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G51" s="9">
+        <v>300</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="17"/>
+        <v>5.2359877562646675</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="18"/>
+        <v>0.50000000024394098</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.86602540364359926</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="22"/>
+        <v>6.9282000033801445</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="23"/>
+        <v>-11.99999440304717</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>24</v>
+      </c>
+      <c r="F52" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G52" s="9">
+        <v>315</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="17"/>
+        <v>5.4977871440779005</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" si="18"/>
+        <v>0.70710678139568306</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.70710678097741198</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="22"/>
+        <v>9.7979544057311436</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="23"/>
+        <v>-9.7979543999354117</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="1">
+        <v>24</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>330</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="17"/>
+        <v>5.7595865318911335</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" si="18"/>
+        <v>0.86602540393936156</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.49999999973166565</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="22"/>
+        <v>11.999994407145371</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="23"/>
+        <v>-6.9281999962818519</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <v>24</v>
+      </c>
+      <c r="F54" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <v>345</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="17"/>
+        <v>6.0213859197043673</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="18"/>
+        <v>0.96592582637290758</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" si="19"/>
+        <v>-0.25881904478962814</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="22"/>
+        <v>13.384254620553557</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="23"/>
+        <v>-3.5863002122230037</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>24</v>
+      </c>
+      <c r="F55" s="1">
+        <v>13.856400000000001</v>
+      </c>
+      <c r="G55" s="9">
+        <v>360</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="17"/>
+        <v>6.2831853075176003</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" si="19"/>
+        <v>3.3801381615558568E-10</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="22"/>
+        <v>13.856400000000001</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="23"/>
+        <v>4.6836546421782578E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="O65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="K67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="P67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="I68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="1">
+        <f>M69-(H69+I69)</f>
+        <v>13.397500000000008</v>
+      </c>
+      <c r="H69" s="1">
+        <f>SQRT(3)*M69/N69*(SQRT(3)/2*K69-0.5*L69)</f>
+        <v>86.602499999999992</v>
+      </c>
+      <c r="I69" s="1">
+        <f>SQRT(3)*M69/N69*L69</f>
         <v>0</v>
       </c>
-      <c r="D29">
-        <f>C29/57.29577951</f>
+      <c r="J69" s="1">
         <v>0</v>
       </c>
-      <c r="E29">
-        <f>COS(D29)</f>
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f>SIN(D29)</f>
+      <c r="K69" s="1">
+        <f>K31</f>
+        <v>13.856400000000001</v>
+      </c>
+      <c r="L69" s="1">
+        <f>L31</f>
         <v>0</v>
       </c>
-      <c r="G29">
-        <f>E29*B29</f>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f>F29*B29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="M69" s="1">
+        <v>100</v>
+      </c>
+      <c r="N69" s="1">
+        <v>24</v>
+      </c>
+      <c r="O69" s="1">
+        <f>(M69-H69-I69)/4</f>
+        <v>3.349375000000002</v>
+      </c>
+      <c r="P69" s="1">
+        <f>O69+H69/2</f>
+        <v>46.650624999999998</v>
+      </c>
+      <c r="Q69" s="1">
+        <f>P69+I69/2</f>
+        <v>46.650624999999998</v>
+      </c>
+      <c r="R69" s="1">
+        <f>M69-O69*2</f>
+        <v>93.301249999999996</v>
+      </c>
+      <c r="S69" s="1">
+        <f>M69-P69*2</f>
+        <v>6.698750000000004</v>
+      </c>
+      <c r="T69" s="1">
+        <f>M69-2*Q69</f>
+        <v>6.698750000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="1">
+        <f t="shared" ref="G70:G72" si="24">M70-(H70+I70)</f>
+        <v>3.4074624070308062</v>
+      </c>
+      <c r="H70" s="1">
+        <f>SQRT(3)*M70/N70*(SQRT(3)/2*K70-0.5*L70)</f>
+        <v>70.710645148797497</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" ref="I70:I72" si="25">SQRT(3)*M70/N70*L70</f>
+        <v>25.88189244417169</v>
+      </c>
+      <c r="J70" s="1">
+        <v>15</v>
+      </c>
+      <c r="K70" s="1">
+        <f>K32</f>
+        <v>13.384254619341338</v>
+      </c>
+      <c r="L70" s="1">
+        <f>L32</f>
+        <v>3.5863002167470719</v>
+      </c>
+      <c r="M70" s="1">
+        <v>100</v>
+      </c>
+      <c r="N70" s="1">
+        <v>24</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" ref="O70:O97" si="26">(M70-H70-I70)/4</f>
+        <v>0.85186560175770332</v>
+      </c>
+      <c r="P70" s="1">
+        <f>O70+H70/2</f>
+        <v>36.20718817615645</v>
+      </c>
+      <c r="Q70" s="1">
+        <f>P70+I70/2</f>
+        <v>49.148134398242291</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" ref="R70:R97" si="27">M70-O70*2</f>
+        <v>98.296268796484597</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" ref="S70:S97" si="28">M70-P70*2</f>
+        <v>27.5856236476871</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" ref="T70:T97" si="29">M70-2*Q70</f>
+        <v>1.7037312035154173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="1">
+        <f t="shared" si="24"/>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H71" s="12">
+        <f t="shared" ref="H71:H72" si="30">SQRT(3)*M71/N71*(SQRT(3)/2*K71-0.5*L71)</f>
+        <v>49.999976685055174</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="25"/>
+        <v>49.999976689933966</v>
+      </c>
+      <c r="J71" s="7">
         <v>30</v>
       </c>
-      <c r="D30">
-        <f>C30/57.29577951</f>
-        <v>0.52359877562646673</v>
-      </c>
-      <c r="E30">
-        <f>COS(D30)</f>
-        <v>0.86602540377035475</v>
-      </c>
-      <c r="F30">
-        <f>SIN(D30)</f>
-        <v>0.50000000002439404</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G41" si="13">E30*B30</f>
-        <v>0.86602540377035475</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H41" si="14">F30*B30</f>
-        <v>0.50000000002439404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="K71" s="1">
+        <f>K33</f>
+        <v>11.999994404803545</v>
+      </c>
+      <c r="L71" s="1">
+        <f>L33</f>
+        <v>6.9282000003380135</v>
+      </c>
+      <c r="M71" s="1">
+        <v>100</v>
+      </c>
+      <c r="N71" s="1">
+        <v>24</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252715042115E-5</v>
+      </c>
+      <c r="P71" s="1">
+        <f>O71+H71/2</f>
+        <v>24.999999998780304</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>P71+I71/2</f>
+        <v>49.99998834374729</v>
+      </c>
+      <c r="R71" s="12">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S71" s="12">
+        <f t="shared" si="28"/>
+        <v>50.000000002439393</v>
+      </c>
+      <c r="T71" s="12">
+        <f t="shared" si="29"/>
+        <v>2.3312505419426088E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="1">
+        <f t="shared" si="24"/>
+        <v>3.4074624084888825</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="30"/>
+        <v>25.88189243873008</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="25"/>
+        <v>70.710645152781041</v>
+      </c>
+      <c r="J72" s="1">
+        <v>45</v>
+      </c>
+      <c r="K72" s="1">
+        <f>K34</f>
+        <v>9.7979544024192968</v>
+      </c>
+      <c r="L72" s="1">
+        <f>L34</f>
+        <v>9.7979544032472585</v>
+      </c>
+      <c r="M72" s="1">
+        <v>100</v>
+      </c>
+      <c r="N72" s="1">
+        <v>24</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560212222062</v>
+      </c>
+      <c r="P72" s="1">
+        <f>O72+H72/2</f>
+        <v>13.792811821487261</v>
+      </c>
+      <c r="Q72" s="1">
+        <f>P72+I72/2</f>
+        <v>49.148134397877783</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268795755566</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="28"/>
+        <v>72.414376357025475</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312042444341</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="1">
+        <f>M74-(H74+I74)</f>
+        <v>13.397499997183218</v>
+      </c>
+      <c r="H74" s="1">
+        <f>SQRT(3)*M74/N74*(SQRT(3)/2*K74+0.5*L74)</f>
+        <v>86.602499997183216</v>
+      </c>
+      <c r="I74" s="1">
+        <f>SQRT(3)*M74/N74*(-SQRT(3)/2*K74+0.5*L74)</f>
+        <v>5.6335691749098801E-9</v>
+      </c>
+      <c r="J74" s="1">
         <v>60</v>
       </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D41" si="15">C31/57.29577951</f>
-        <v>1.0471975512529335</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E41" si="16">COS(D31)</f>
-        <v>0.49999999995121186</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F41" si="17">SIN(D31)</f>
-        <v>0.86602540381260651</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="13"/>
-        <v>0.49999999995121186</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="14"/>
-        <v>0.86602540381260651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="K74" s="1">
+        <f>K35</f>
+        <v>6.9281999993239722</v>
+      </c>
+      <c r="L74" s="1">
+        <f>L35</f>
+        <v>11.999994405389002</v>
+      </c>
+      <c r="M74" s="1">
+        <v>100</v>
+      </c>
+      <c r="N74" s="1">
+        <v>24</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="26"/>
+        <v>3.3493749992958035</v>
+      </c>
+      <c r="P74" s="1">
+        <f>O74+H74/2</f>
+        <v>46.650624997887412</v>
+      </c>
+      <c r="Q74" s="1">
+        <f>P74+I74/2</f>
+        <v>46.650625000704196</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="27"/>
+        <v>93.301250001408391</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="28"/>
+        <v>6.6987500042251753</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="29"/>
+        <v>6.6987499985916088</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="1">
+        <f>M75-(H75+I75)</f>
+        <v>3.4074624055727298</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" ref="H75" si="31">SQRT(3)*M75/N75*(SQRT(3)/2*K75+0.5*L75)</f>
+        <v>70.710645144813967</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" ref="I75" si="32">SQRT(3)*M75/N75*(-SQRT(3)/2*K75+0.5*L75)</f>
+        <v>25.881892449613307</v>
+      </c>
+      <c r="J75" s="1">
+        <v>75</v>
+      </c>
+      <c r="K75" s="1">
+        <f>K36</f>
+        <v>3.5863002156160535</v>
+      </c>
+      <c r="L75" s="1">
+        <f>L36</f>
+        <v>13.384254619644393</v>
+      </c>
+      <c r="M75" s="1">
+        <v>100</v>
+      </c>
+      <c r="N75" s="1">
+        <v>24</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560139318157</v>
+      </c>
+      <c r="P75" s="1">
+        <f>O75+H75/2</f>
+        <v>36.207188173800162</v>
+      </c>
+      <c r="Q75" s="1">
+        <f>P75+I75/2</f>
+        <v>49.148134398606814</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268797213642</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="28"/>
+        <v>27.585623652399676</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="29"/>
+        <v>1.703731202786372</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="1">
+        <f>M76-(H76+I76)</f>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" ref="H76" si="33">SQRT(3)*M76/N76*(SQRT(3)/2*K76+0.5*L76)</f>
+        <v>49.999976680176353</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" ref="I76" si="34">SQRT(3)*M76/N76*(-SQRT(3)/2*K76+0.5*L76)</f>
+        <v>49.99997669481278</v>
+      </c>
+      <c r="J76" s="1">
         <v>90</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="15"/>
-        <v>1.5707963268794001</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="16"/>
-        <v>-8.4503454038896419E-11</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="13"/>
-        <v>-8.4503454038896419E-11</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="K76" s="1">
+        <f>K37</f>
+        <v>-1.1709136605445644E-9</v>
+      </c>
+      <c r="L76" s="1">
+        <f>L37</f>
+        <v>13.856400000000001</v>
+      </c>
+      <c r="M76" s="1">
+        <v>100</v>
+      </c>
+      <c r="N76" s="1">
+        <v>24</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252716818472E-5</v>
+      </c>
+      <c r="P76" s="1">
+        <f>O76+H76/2</f>
+        <v>24.999999996340893</v>
+      </c>
+      <c r="Q76" s="1">
+        <f>P76+I76/2</f>
+        <v>49.999988343747283</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="28"/>
+        <v>50.000000007318214</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="29"/>
+        <v>2.3312505433636943E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="1">
+        <f>M77-(H77+I77)</f>
+        <v>3.4074624099469304</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" ref="H77" si="35">SQRT(3)*M77/N77*(SQRT(3)/2*K77+0.5*L77)</f>
+        <v>25.881892433288478</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" ref="I77" si="36">SQRT(3)*M77/N77*(-SQRT(3)/2*K77+0.5*L77)</f>
+        <v>70.710645156764585</v>
+      </c>
+      <c r="J77" s="1">
+        <v>105</v>
+      </c>
+      <c r="K77" s="1">
+        <f>K38</f>
+        <v>-3.5863002178780881</v>
+      </c>
+      <c r="L77" s="1">
+        <f>L38</f>
+        <v>13.384254619038282</v>
+      </c>
+      <c r="M77" s="1">
+        <v>100</v>
+      </c>
+      <c r="N77" s="1">
+        <v>24</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560248673615</v>
+      </c>
+      <c r="P77" s="1">
+        <f>O77+H77/2</f>
+        <v>13.792811819130975</v>
+      </c>
+      <c r="Q77" s="1">
+        <f>P77+I77/2</f>
+        <v>49.148134397513267</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268795026521</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="28"/>
+        <v>72.41437636173805</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312049734652</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="1">
+        <f>M79-(H79+I79)</f>
+        <v>13.397499994366441</v>
+      </c>
+      <c r="H79" s="1">
+        <f>SQRT(3)*M79/N79*L79</f>
+        <v>86.602499994366426</v>
+      </c>
+      <c r="I79" s="1">
+        <f>-SQRT(3)*M79/N79*(SQRT(3)/2*K39+0.5*L79)</f>
+        <v>1.126713193994414E-8</v>
+      </c>
+      <c r="J79" s="1">
         <v>120</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="15"/>
-        <v>2.0943951025058669</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="16"/>
-        <v>-0.50000000009757628</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="17"/>
-        <v>0.86602540372810288</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="13"/>
-        <v>-0.50000000009757628</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="14"/>
-        <v>0.86602540372810288</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="K79" s="1">
+        <f>K39</f>
+        <v>-6.9282000013520566</v>
+      </c>
+      <c r="L79" s="1">
+        <f>L39</f>
+        <v>11.999994404218086</v>
+      </c>
+      <c r="M79" s="1">
+        <v>100</v>
+      </c>
+      <c r="N79" s="1">
+        <v>24</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="26"/>
+        <v>3.3493749985916108</v>
+      </c>
+      <c r="P79" s="1">
+        <f>O79+H79/2</f>
+        <v>46.650624995774827</v>
+      </c>
+      <c r="Q79" s="1">
+        <f>P79+I79/2</f>
+        <v>46.650625001408393</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="27"/>
+        <v>93.301250002816772</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="28"/>
+        <v>6.6987500084503466</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="29"/>
+        <v>6.6987499971832136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="1">
+        <f>M80-(H80+I80)</f>
+        <v>3.4074624041146677</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" ref="H80:H82" si="37">SQRT(3)*M80/N80*L80</f>
+        <v>70.710645140830437</v>
+      </c>
+      <c r="I80" s="1">
+        <f>-SQRT(3)*M80/N80*(SQRT(3)/2*K40+0.5*L80)</f>
+        <v>25.881892455054899</v>
+      </c>
+      <c r="J80" s="1">
+        <v>135</v>
+      </c>
+      <c r="K80" s="1">
+        <f>K40</f>
+        <v>-9.7979544040752202</v>
+      </c>
+      <c r="L80" s="1">
+        <f>L40</f>
+        <v>9.7979544015913334</v>
+      </c>
+      <c r="M80" s="1">
+        <v>100</v>
+      </c>
+      <c r="N80" s="1">
+        <v>24</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560102866604</v>
+      </c>
+      <c r="P80" s="1">
+        <f>O80+H80/2</f>
+        <v>36.207188171443882</v>
+      </c>
+      <c r="Q80" s="1">
+        <f>P80+I80/2</f>
+        <v>49.14813439897133</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268797942673</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="28"/>
+        <v>27.585623657112237</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="29"/>
+        <v>1.703731202057341</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="1">
+        <f>M81-(H81+I81)</f>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="37"/>
+        <v>49.999976675297525</v>
+      </c>
+      <c r="I81" s="1">
+        <f>-SQRT(3)*M81/N81*(SQRT(3)/2*K41+0.5*L81)</f>
+        <v>49.999976699691608</v>
+      </c>
+      <c r="J81" s="1">
         <v>150</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="15"/>
-        <v>2.6179938781323338</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="16"/>
-        <v>-0.86602540385485838</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="17"/>
-        <v>0.49999999987802951</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="13"/>
-        <v>-0.86602540385485838</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="14"/>
-        <v>0.49999999987802951</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="K81" s="1">
+        <f>K41</f>
+        <v>-11.99999440597446</v>
+      </c>
+      <c r="L81" s="1">
+        <f>L41</f>
+        <v>6.9281999983099283</v>
+      </c>
+      <c r="M81" s="1">
+        <v>100</v>
+      </c>
+      <c r="N81" s="1">
+        <v>24</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252716818472E-5</v>
+      </c>
+      <c r="P81" s="1">
+        <f>O81+H81/2</f>
+        <v>24.999999993901479</v>
+      </c>
+      <c r="Q81" s="1">
+        <f>P81+I81/2</f>
+        <v>49.999988343747283</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="28"/>
+        <v>50.000000012197042</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="29"/>
+        <v>2.3312505433636943E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="3"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="1">
+        <f>M82-(H82+I82)</f>
+        <v>3.4074624114050209</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="37"/>
+        <v>25.881892427846889</v>
+      </c>
+      <c r="I82" s="1">
+        <f>-SQRT(3)*M82/N82*(SQRT(3)/2*K42+0.5*L82)</f>
+        <v>70.710645160748086</v>
+      </c>
+      <c r="J82" s="1">
+        <v>165</v>
+      </c>
+      <c r="K82" s="1">
+        <f>K42</f>
+        <v>-13.384254619947447</v>
+      </c>
+      <c r="L82" s="1">
+        <f>L42</f>
+        <v>3.5863002144850413</v>
+      </c>
+      <c r="M82" s="1">
+        <v>100</v>
+      </c>
+      <c r="N82" s="1">
+        <v>24</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560285125523</v>
+      </c>
+      <c r="P82" s="1">
+        <f>O82+H82/2</f>
+        <v>13.7928118167747</v>
+      </c>
+      <c r="Q82" s="1">
+        <f>P82+I82/2</f>
+        <v>49.148134397148745</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="27"/>
+        <v>98.29626879429749</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="28"/>
+        <v>72.414376366450597</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312057025105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="1">
+        <f>M84-(H84+I84)</f>
+        <v>13.397499991549665</v>
+      </c>
+      <c r="H84" s="1">
+        <f>SQRT(3)*M84/N84*(-SQRT(3)/2*K84+0.5*L84)</f>
+        <v>86.602499991549649</v>
+      </c>
+      <c r="I84" s="1">
+        <f>-SQRT(3)*M84/N84*L84</f>
+        <v>1.6900682927830359E-8</v>
+      </c>
+      <c r="J84" s="1">
         <v>180</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="15"/>
-        <v>3.1415926537588001</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="17"/>
-        <v>-1.6900690807779284E-10</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="14"/>
-        <v>-1.6900690807779284E-10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="K84" s="1">
+        <f>K43</f>
+        <v>-13.856400000000001</v>
+      </c>
+      <c r="L84" s="1">
+        <f>L43</f>
+        <v>-2.3418273210891289E-9</v>
+      </c>
+      <c r="M84" s="1">
+        <v>100</v>
+      </c>
+      <c r="N84" s="1">
+        <v>24</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="26"/>
+        <v>3.3493749978874168</v>
+      </c>
+      <c r="P84" s="1">
+        <f>O84+H84/2</f>
+        <v>46.650624993662241</v>
+      </c>
+      <c r="Q84" s="1">
+        <f>P84+I84/2</f>
+        <v>46.650625002112584</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="27"/>
+        <v>93.301250004225167</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="28"/>
+        <v>6.698750012675518</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="29"/>
+        <v>6.6987499957748327</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="3"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="1">
+        <f>M85-(H85+I85)</f>
+        <v>3.4074624026565772</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" ref="H85:H87" si="38">SQRT(3)*M85/N85*(-SQRT(3)/2*K85+0.5*L85)</f>
+        <v>70.710645136846921</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" ref="I85:I87" si="39">-SQRT(3)*M85/N85*L85</f>
+        <v>25.881892460496502</v>
+      </c>
+      <c r="J85" s="8">
+        <v>195</v>
+      </c>
+      <c r="K85" s="8">
+        <f>K44</f>
+        <v>-13.384254618735227</v>
+      </c>
+      <c r="L85" s="8">
+        <f>L44</f>
+        <v>-3.5863002190091042</v>
+      </c>
+      <c r="M85" s="1">
+        <v>100</v>
+      </c>
+      <c r="N85" s="1">
+        <v>24</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8518656006641443</v>
+      </c>
+      <c r="P85" s="1">
+        <f>O85+H85/2</f>
+        <v>36.207188169087601</v>
+      </c>
+      <c r="Q85" s="1">
+        <f>P85+I85/2</f>
+        <v>49.148134399335852</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268798671719</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="28"/>
+        <v>27.585623661824798</v>
+      </c>
+      <c r="T85" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312013282957</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="1">
+        <f>M86-(H86+I86)</f>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="38"/>
+        <v>49.999976670418732</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="39"/>
+        <v>49.9999767045704</v>
+      </c>
+      <c r="J86" s="1">
         <v>210</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="15"/>
-        <v>3.665191429385267</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="16"/>
-        <v>-0.86602540368585124</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="17"/>
-        <v>-0.50000000017075841</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="13"/>
-        <v>-0.86602540368585124</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="14"/>
-        <v>-0.50000000017075841</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="K86" s="1">
+        <f>K45</f>
+        <v>-11.99999440363263</v>
+      </c>
+      <c r="L86" s="1">
+        <f>L45</f>
+        <v>-6.928200002366097</v>
+      </c>
+      <c r="M86" s="1">
+        <v>100</v>
+      </c>
+      <c r="N86" s="1">
+        <v>24</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252716818472E-5</v>
+      </c>
+      <c r="P86" s="1">
+        <f>O86+H86/2</f>
+        <v>24.999999991462083</v>
+      </c>
+      <c r="Q86" s="1">
+        <f>P86+I86/2</f>
+        <v>49.999988343747283</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="28"/>
+        <v>50.000000017075834</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" si="29"/>
+        <v>2.3312505433636943E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="1">
+        <f>M87-(H87+I87)</f>
+        <v>3.4074624128630973</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="38"/>
+        <v>25.881892422405254</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="39"/>
+        <v>70.710645164731645</v>
+      </c>
+      <c r="J87" s="1">
+        <v>225</v>
+      </c>
+      <c r="K87" s="1">
+        <f>K46</f>
+        <v>-9.7979544007633734</v>
+      </c>
+      <c r="L87" s="1">
+        <f>L46</f>
+        <v>-9.7979544049031819</v>
+      </c>
+      <c r="M87" s="1">
+        <v>100</v>
+      </c>
+      <c r="N87" s="1">
+        <v>24</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560321577431</v>
+      </c>
+      <c r="P87" s="1">
+        <f>O87+H87/2</f>
+        <v>13.792811814418402</v>
+      </c>
+      <c r="Q87" s="1">
+        <f>P87+I87/2</f>
+        <v>49.148134396784222</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268793568458</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="28"/>
+        <v>72.4143763711632</v>
+      </c>
+      <c r="T87" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312064315557</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="1">
+        <f>M89-(H89+I89)</f>
+        <v>13.397499988732861</v>
+      </c>
+      <c r="H89" s="1">
+        <f>-SQRT(3)*M89/N89*(SQRT(3)/2*K89+0.5*L89)</f>
+        <v>86.602499988732873</v>
+      </c>
+      <c r="I89" s="1">
+        <f>-SQRT(3)*M89/N89*(-SQRT(3)/2*K89+0.5*L89)</f>
+        <v>2.2534270289763898E-8</v>
+      </c>
+      <c r="J89" s="1">
         <v>240</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="15"/>
-        <v>4.1887902050117338</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="16"/>
-        <v>-0.49999999980484738</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="17"/>
-        <v>-0.86602540389711002</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="13"/>
-        <v>-0.49999999980484738</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="14"/>
-        <v>-0.86602540389711002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
+      <c r="K89" s="1">
+        <f>K47</f>
+        <v>-6.9281999972958879</v>
+      </c>
+      <c r="L89" s="1">
+        <f>L47</f>
+        <v>-11.999994406559916</v>
+      </c>
+      <c r="M89" s="1">
+        <v>100</v>
+      </c>
+      <c r="N89" s="1">
+        <v>24</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="26"/>
+        <v>3.3493749971832143</v>
+      </c>
+      <c r="P89" s="1">
+        <f>O89+H89/2</f>
+        <v>46.650624991549648</v>
+      </c>
+      <c r="Q89" s="1">
+        <f>P89+I89/2</f>
+        <v>46.650625002816781</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="27"/>
+        <v>93.301250005633577</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="28"/>
+        <v>6.6987500169007035</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="29"/>
+        <v>6.6987499943664375</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="3"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="1">
+        <f>M90-(H90+I90)</f>
+        <v>3.4074624011985151</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" ref="H90:H92" si="40">-SQRT(3)*M90/N90*(SQRT(3)/2*K90+0.5*L90)</f>
+        <v>70.710645132863391</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" ref="I90:I92" si="41">-SQRT(3)*M90/N90*(-SQRT(3)/2*K90+0.5*L90)</f>
+        <v>25.88189246593809</v>
+      </c>
+      <c r="J90" s="1">
+        <v>255</v>
+      </c>
+      <c r="K90" s="1">
+        <f>K48</f>
+        <v>-3.5863002133540252</v>
+      </c>
+      <c r="L90" s="1">
+        <f>L48</f>
+        <v>-13.384254620250502</v>
+      </c>
+      <c r="M90" s="1">
+        <v>100</v>
+      </c>
+      <c r="N90" s="1">
+        <v>24</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560029962966</v>
+      </c>
+      <c r="P90" s="1">
+        <f>O90+H90/2</f>
+        <v>36.207188166731328</v>
+      </c>
+      <c r="Q90" s="1">
+        <f>P90+I90/2</f>
+        <v>49.148134399700375</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268799400735</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="28"/>
+        <v>27.585623666537344</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312005992504</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="1">
+        <f>M91-(H91+I91)</f>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="40"/>
+        <v>49.999976665539897</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="41"/>
+        <v>49.999976709449236</v>
+      </c>
+      <c r="J91" s="1">
         <v>270</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="15"/>
-        <v>4.7123889806382007</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="16"/>
-        <v>2.5351080620589911E-10</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="13"/>
-        <v>2.5351080620589911E-10</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="K91" s="1">
+        <f>K49</f>
+        <v>3.5127471351114205E-9</v>
+      </c>
+      <c r="L91" s="1">
+        <f>L49</f>
+        <v>-13.856400000000001</v>
+      </c>
+      <c r="M91" s="1">
+        <v>100</v>
+      </c>
+      <c r="N91" s="1">
+        <v>24</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252716818472E-5</v>
+      </c>
+      <c r="P91" s="1">
+        <f>O91+H91/2</f>
+        <v>24.999999989022665</v>
+      </c>
+      <c r="Q91" s="1">
+        <f>P91+I91/2</f>
+        <v>49.999988343747283</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="28"/>
+        <v>50.000000021954669</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="29"/>
+        <v>2.3312505433636943E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="3"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="1">
+        <f>M92-(H92+I92)</f>
+        <v>3.4074624143211736</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="40"/>
+        <v>25.881892416963673</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="41"/>
+        <v>70.71064516871516</v>
+      </c>
+      <c r="J92" s="1">
+        <v>285</v>
+      </c>
+      <c r="K92" s="1">
+        <f>K50</f>
+        <v>3.5863002201401195</v>
+      </c>
+      <c r="L92" s="1">
+        <f>L50</f>
+        <v>-13.384254618432173</v>
+      </c>
+      <c r="M92" s="1">
+        <v>100</v>
+      </c>
+      <c r="N92" s="1">
+        <v>24</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8518656035802934</v>
+      </c>
+      <c r="P92" s="1">
+        <f>O92+H92/2</f>
+        <v>13.79281181206213</v>
+      </c>
+      <c r="Q92" s="1">
+        <f>P92+I92/2</f>
+        <v>49.148134396419707</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268792839413</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="28"/>
+        <v>72.414376375875747</v>
+      </c>
+      <c r="T92" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312071605868</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="1">
+        <f>M94-(H94+I94)</f>
+        <v>13.39749998591607</v>
+      </c>
+      <c r="H94" s="1">
+        <f>-SQRT(3)*M94/N94*L94</f>
+        <v>86.602499985916069</v>
+      </c>
+      <c r="I94" s="1">
+        <f>SQRT(3)*M94/N94*(SQRT(3)/2*K94+0.5*L94)</f>
+        <v>2.8167865104176266E-8</v>
+      </c>
+      <c r="J94" s="1">
         <v>300</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="15"/>
-        <v>5.2359877562646675</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="16"/>
-        <v>0.50000000024394098</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="17"/>
-        <v>-0.86602540364359926</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="13"/>
-        <v>0.50000000024394098</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="14"/>
-        <v>-0.86602540364359926</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="K94" s="1">
+        <f>K51</f>
+        <v>6.9282000033801445</v>
+      </c>
+      <c r="L94" s="1">
+        <f>L51</f>
+        <v>-11.99999440304717</v>
+      </c>
+      <c r="M94" s="1">
+        <v>100</v>
+      </c>
+      <c r="N94" s="1">
+        <v>24</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="26"/>
+        <v>3.3493749964790167</v>
+      </c>
+      <c r="P94" s="1">
+        <f>O94+H94/2</f>
+        <v>46.650624989437048</v>
+      </c>
+      <c r="Q94" s="1">
+        <f>P94+I94/2</f>
+        <v>46.650625003520979</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" si="27"/>
+        <v>93.301250007041972</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="28"/>
+        <v>6.6987500211259032</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="29"/>
+        <v>6.6987499929580423</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B95" s="3"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="1">
+        <f>M95-(H95+I95)</f>
+        <v>3.4074623997404387</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" ref="H95:H97" si="42">-SQRT(3)*M95/N95*L95</f>
+        <v>70.710645128879847</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" ref="I95:I97" si="43">SQRT(3)*M95/N95*(SQRT(3)/2*K95+0.5*L95)</f>
+        <v>25.881892471379718</v>
+      </c>
+      <c r="J95" s="1">
+        <v>315</v>
+      </c>
+      <c r="K95" s="1">
+        <f>K52</f>
+        <v>9.7979544057311436</v>
+      </c>
+      <c r="L95" s="1">
+        <f>L52</f>
+        <v>-9.7979543999354117</v>
+      </c>
+      <c r="M95" s="1">
+        <v>100</v>
+      </c>
+      <c r="N95" s="1">
+        <v>24</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8518655999351088</v>
+      </c>
+      <c r="P95" s="1">
+        <f>O95+H95/2</f>
+        <v>36.207188164375033</v>
+      </c>
+      <c r="Q95" s="1">
+        <f>P95+I95/2</f>
+        <v>49.14813440006489</v>
+      </c>
+      <c r="R95" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268800129781</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="28"/>
+        <v>27.585623671249934</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037311998702194</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="1">
+        <f>M96-(H96+I96)</f>
+        <v>4.6625010867273886E-5</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="42"/>
+        <v>49.99997666066114</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="43"/>
+        <v>49.999976714328</v>
+      </c>
+      <c r="J96" s="1">
         <v>330</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="15"/>
-        <v>5.7595865318911335</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="16"/>
-        <v>0.86602540393936156</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="17"/>
-        <v>-0.49999999973166565</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>0.86602540393936156</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="14"/>
-        <v>-0.49999999973166565</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>360</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="15"/>
-        <v>6.2831853075176003</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="17"/>
-        <v>3.3801381615558568E-10</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>3.3801381615558568E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C44">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+      <c r="K96" s="1">
+        <f>K53</f>
+        <v>11.999994407145371</v>
+      </c>
+      <c r="L96" s="1">
+        <f>L53</f>
+        <v>-6.9281999962818519</v>
+      </c>
+      <c r="M96" s="1">
+        <v>100</v>
+      </c>
+      <c r="N96" s="1">
+        <v>24</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="26"/>
+        <v>1.1656252715042115E-5</v>
+      </c>
+      <c r="P96" s="1">
+        <f>O96+H96/2</f>
+        <v>24.999999986583283</v>
+      </c>
+      <c r="Q96" s="1">
+        <f>P96+I96/2</f>
+        <v>49.999988343747283</v>
+      </c>
+      <c r="R96" s="1">
+        <f t="shared" si="27"/>
+        <v>99.999976687494566</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="28"/>
+        <v>50.000000026833433</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="29"/>
+        <v>2.3312505433636943E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="3"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="1">
+        <f>M97-(H97+I97)</f>
+        <v>3.4074624157792641</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="42"/>
+        <v>25.881892411522038</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="43"/>
+        <v>70.71064517269869</v>
+      </c>
+      <c r="J97" s="1">
+        <v>345</v>
+      </c>
+      <c r="K97" s="1">
+        <f>K54</f>
+        <v>13.384254620553557</v>
+      </c>
+      <c r="L97" s="1">
+        <f>L54</f>
+        <v>-3.5863002122230037</v>
+      </c>
+      <c r="M97" s="1">
+        <v>100</v>
+      </c>
+      <c r="N97" s="1">
+        <v>24</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="26"/>
+        <v>0.85186560394481603</v>
+      </c>
+      <c r="P97" s="1">
+        <f>O97+H97/2</f>
+        <v>13.792811809705835</v>
+      </c>
+      <c r="Q97" s="1">
+        <f>P97+I97/2</f>
+        <v>49.148134396055184</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="27"/>
+        <v>98.296268792110368</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="28"/>
+        <v>72.414376380588322</v>
+      </c>
+      <c r="T97" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7037312078896321</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A9:H10"/>
-    <mergeCell ref="I1:I1048576"/>
+  <mergeCells count="37">
+    <mergeCell ref="D1:D26"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="C86:E87"/>
+    <mergeCell ref="C89:E90"/>
+    <mergeCell ref="C91:E92"/>
+    <mergeCell ref="C94:E95"/>
+    <mergeCell ref="C96:E97"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="C79:E80"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="M1:M26"/>
+    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF7DEAB-20F7-484D-A8AC-DBABC426FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEFFAA-D2CB-4BE4-8DEF-466BF445E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,18 +402,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I65" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1916,28 +1916,28 @@
     </row>
     <row r="9" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="6:19" x14ac:dyDescent="0.2">
@@ -2033,9 +2033,9 @@
         <v>0.50000000002439404</v>
       </c>
       <c r="O13" s="13"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F14" s="13"/>
@@ -2425,9 +2425,9 @@
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G28" s="1" t="s">
@@ -2438,10 +2438,10 @@
       <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G30" s="1" t="s">
@@ -2474,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="M31" s="1">
         <f>K31*H31</f>
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="N31" s="1">
         <f>L31*H31</f>
@@ -2505,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="H32" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1">
         <v>15</v>
@@ -2524,11 +2524,11 @@
       </c>
       <c r="M32" s="1">
         <f>K32*H32</f>
-        <v>13.32977640273884</v>
+        <v>1.9318516525708462</v>
       </c>
       <c r="N32" s="1">
         <f>L32*H32</f>
-        <v>3.5717028226025223</v>
+        <v>0.5176380902322496</v>
       </c>
     </row>
     <row r="33" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
         <v>30</v>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ref="M33:M45" si="13">K33*H33</f>
-        <v>11.951150572030896</v>
+        <v>1.7320508075407095</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ref="N33:N45" si="14">L33*H33</f>
-        <v>6.9000000003366377</v>
+        <v>1.0000000000487881</v>
       </c>
     </row>
     <row r="34" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2567,7 +2567,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1">
         <v>45</v>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ref="M34" si="15">K34*H34</f>
-        <v>9.7580735799620602</v>
+        <v>1.4142135623133421</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ref="N34" si="16">L34*H34</f>
-        <v>9.7580735807866521</v>
+        <v>1.414213562432848</v>
       </c>
     </row>
     <row r="35" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2599,7 +2599,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I35" s="6">
         <v>60</v>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="M35" s="6">
         <f t="shared" si="13"/>
-        <v>6.8999999993267238</v>
+        <v>0.99999999990242372</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" si="14"/>
-        <v>11.951150572613971</v>
+        <v>1.732050807625213</v>
       </c>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
         <v>75</v>
@@ -2649,11 +2649,11 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ref="M36:M44" si="20">K36*H36</f>
-        <v>3.5717028214761077</v>
+        <v>0.51763809006900108</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ref="N36:N44" si="21">L36*H36</f>
-        <v>13.329776403040661</v>
+        <v>1.9318516526145886</v>
       </c>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
         <v>90</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" si="20"/>
-        <v>-1.1661476657367706E-9</v>
+        <v>-1.6900690807779284E-10</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="21"/>
-        <v>13.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
         <v>105</v>
@@ -2711,11 +2711,11 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" si="20"/>
-        <v>-3.571702823728935</v>
+        <v>-0.5176380903954978</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="21"/>
-        <v>13.329776402437018</v>
+        <v>1.9318516525271039</v>
       </c>
     </row>
     <row r="39" spans="6:14" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I39" s="6">
         <v>120</v>
@@ -2743,11 +2743,11 @@
       </c>
       <c r="M39" s="6">
         <f t="shared" si="20"/>
-        <v>-6.9000000013465534</v>
+        <v>-1.0000000001951526</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="21"/>
-        <v>11.951150571447821</v>
+        <v>1.7320508074562058</v>
       </c>
     </row>
     <row r="40" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
         <v>135</v>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" si="20"/>
-        <v>-9.7580735816112441</v>
+        <v>-1.4142135625523542</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="21"/>
-        <v>9.7580735791374682</v>
+        <v>1.4142135621938359</v>
       </c>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
         <v>150</v>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" si="20"/>
-        <v>-11.951150573197046</v>
+        <v>-1.7320508077097168</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="21"/>
-        <v>6.8999999983168072</v>
+        <v>0.99999999975605902</v>
       </c>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.2">
@@ -2817,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="H42" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1">
         <v>165</v>
@@ -2836,11 +2836,11 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" si="20"/>
-        <v>-13.32977640334248</v>
+        <v>-1.9318516526583305</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="21"/>
-        <v>3.571702820349699</v>
+        <v>0.51763808990575344</v>
       </c>
     </row>
     <row r="43" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2849,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="H43" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I43" s="6">
         <v>180</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="M43" s="6">
         <f>K43*H43</f>
-        <v>-13.8</v>
+        <v>-2</v>
       </c>
       <c r="N43" s="6">
         <f t="shared" si="21"/>
-        <v>-2.3322953314735412E-9</v>
+        <v>-3.3801381615558568E-10</v>
       </c>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1">
         <v>195</v>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" si="20"/>
-        <v>-13.329776402135197</v>
+        <v>-1.9318516524833618</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="21"/>
-        <v>-3.5717028248553473</v>
+        <v>-0.51763809055874599</v>
       </c>
     </row>
     <row r="45" spans="6:14" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="H45" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1">
         <v>210</v>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" si="13"/>
-        <v>-11.951150570864748</v>
+        <v>-1.7320508073717025</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="14"/>
-        <v>-6.9000000023564665</v>
+        <v>-1.0000000003415168</v>
       </c>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1">
         <v>225</v>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ref="M46:M55" si="22">K46*H46</f>
-        <v>-9.7580735783128763</v>
+        <v>-1.4142135620743299</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ref="N46:N55" si="23">L46*H46</f>
-        <v>-9.758073582435836</v>
+        <v>-1.4142135626718602</v>
       </c>
     </row>
     <row r="47" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>24</v>
       </c>
       <c r="H47" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6">
         <v>240</v>
@@ -2993,11 +2993,11 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" si="22"/>
-        <v>-6.8999999973068942</v>
+        <v>-0.99999999960969477</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="23"/>
-        <v>-11.951150573780119</v>
+        <v>-1.73205080779422</v>
       </c>
     </row>
     <row r="48" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3006,7 +3006,7 @@
         <v>24</v>
       </c>
       <c r="H48" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I48" s="6">
         <v>255</v>
@@ -3025,11 +3025,11 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" si="22"/>
-        <v>-3.5717028192232863</v>
+        <v>-0.51763808974250525</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="23"/>
-        <v>-13.329776403644303</v>
+        <v>-1.9318516527020728</v>
       </c>
     </row>
     <row r="49" spans="6:14" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>24</v>
       </c>
       <c r="H49" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
         <v>270</v>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" si="22"/>
-        <v>3.498449125641408E-9</v>
+        <v>5.0702161241179822E-10</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="23"/>
-        <v>-13.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50" spans="6:14" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1">
         <v>285</v>
@@ -3087,11 +3087,11 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" si="22"/>
-        <v>3.5717028259817591</v>
+        <v>0.51763809072199407</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="23"/>
-        <v>-13.329776401833376</v>
+        <v>-1.9318516524396196</v>
       </c>
     </row>
     <row r="51" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>24</v>
       </c>
       <c r="H51" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I51" s="6">
         <v>300</v>
@@ -3119,11 +3119,11 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" si="22"/>
-        <v>6.9000000033663857</v>
+        <v>1.000000000487882</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="23"/>
-        <v>-11.951150570281671</v>
+        <v>-1.7320508072871985</v>
       </c>
     </row>
     <row r="52" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>24</v>
       </c>
       <c r="H52" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I52" s="6">
         <v>315</v>
@@ -3151,11 +3151,11 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" si="22"/>
-        <v>9.7580735832604262</v>
+        <v>1.4142135627913661</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="23"/>
-        <v>-9.7580735774882861</v>
+        <v>-1.414213561954824</v>
       </c>
     </row>
     <row r="53" spans="6:14" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>24</v>
       </c>
       <c r="H53" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I53" s="1">
         <v>330</v>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" si="22"/>
-        <v>11.95115057436319</v>
+        <v>1.7320508078787231</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="23"/>
-        <v>-6.8999999962969865</v>
+        <v>-0.99999999946333129</v>
       </c>
     </row>
     <row r="54" spans="6:14" x14ac:dyDescent="0.2">
@@ -3194,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="H54" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I54" s="1">
         <v>345</v>
@@ -3213,11 +3213,11 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" si="22"/>
-        <v>13.329776403946125</v>
+        <v>1.9318516527458152</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="23"/>
-        <v>-3.5717028180968686</v>
+        <v>-0.51763808957925628</v>
       </c>
     </row>
     <row r="55" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3226,7 +3226,7 @@
         <v>24</v>
       </c>
       <c r="H55" s="1">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="I55" s="6">
         <v>360</v>
@@ -3245,33 +3245,33 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" si="22"/>
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="23"/>
-        <v>4.6645906629470824E-9</v>
+        <v>6.7602763231117136E-10</v>
       </c>
     </row>
     <row r="71" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="12">
         <v>3</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="12">
         <v>1</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="12">
         <v>5</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="12">
         <v>4</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="12">
         <v>6</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="12">
         <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
@@ -3279,25 +3279,25 @@
       </c>
     </row>
     <row r="72" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="12">
         <v>1</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="12">
         <v>2</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="12">
         <v>3</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="12">
         <v>4</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="12">
         <v>5</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="12">
         <v>6</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -3421,25 +3421,25 @@
       </c>
     </row>
     <row r="77" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D77" s="14"/>
+      <c r="D77" s="11"/>
       <c r="F77" s="1">
-        <f>SQRT(3)*N77*O77/P77</f>
+        <f t="shared" ref="F77:F100" si="24">SQRT(3)*N77*O77/P77</f>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f>SQRT(3)*O77/P77*(SQRT(3)/2*M77+0.5*N77)</f>
-        <v>86.25</v>
+        <f t="shared" ref="G77:G100" si="25">SQRT(3)*O77/P77*(SQRT(3)/2*M77+0.5*N77)</f>
+        <v>12.499999999999998</v>
       </c>
       <c r="H77" s="1">
-        <f>SQRT(3)*O77/P77*(-SQRT(3)/2*M77+0.5*N77)</f>
-        <v>-86.25</v>
+        <f t="shared" ref="H77:H100" si="26">SQRT(3)*O77/P77*(-SQRT(3)/2*M77+0.5*N77)</f>
+        <v>-12.499999999999998</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J77" s="1">
         <f>-H77</f>
-        <v>86.25</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="K77" s="1">
         <f>F77</f>
@@ -3449,11 +3449,11 @@
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" ref="M77:N80" si="24">M31</f>
-        <v>13.8</v>
+        <f t="shared" ref="M77:N80" si="27">M31</f>
+        <v>2</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O77" s="1">
@@ -3463,77 +3463,77 @@
         <v>24</v>
       </c>
       <c r="Q77" s="1">
-        <f>(O77-J77-K77)/4</f>
-        <v>3.4375</v>
+        <f t="shared" ref="Q77:Q100" si="28">(O77-J77-K77)/4</f>
+        <v>21.875</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ref="R77:S80" si="25">Q77+J77/2</f>
-        <v>46.5625</v>
+        <f t="shared" ref="R77:S80" si="29">Q77+J77/2</f>
+        <v>28.125</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="25"/>
-        <v>46.5625</v>
+        <f t="shared" si="29"/>
+        <v>28.125</v>
       </c>
       <c r="T77" s="1">
-        <f>O77-Q77*2</f>
-        <v>93.125</v>
+        <f t="shared" ref="T77:T100" si="30">O77-Q77*2</f>
+        <v>56.25</v>
       </c>
       <c r="U77" s="1">
-        <f>O77-R77*2</f>
-        <v>6.875</v>
+        <f t="shared" ref="U77:U100" si="31">O77-R77*2</f>
+        <v>43.75</v>
       </c>
       <c r="V77" s="1">
-        <f>O77-2*S77</f>
-        <v>6.875</v>
+        <f t="shared" ref="V77:V100" si="32">O77-2*S77</f>
+        <v>43.75</v>
       </c>
       <c r="W77" s="1">
         <f>T77/O77</f>
-        <v>0.93125000000000002</v>
+        <v>0.5625</v>
       </c>
       <c r="X77" s="1">
         <f>U77/O77</f>
-        <v>6.8750000000000006E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="Y77" s="1">
         <f>V77/O77</f>
-        <v>6.8750000000000006E-2</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="78" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D78" s="14"/>
+      <c r="D78" s="11"/>
       <c r="F78" s="1">
-        <f>SQRT(3)*N78*O78/P78</f>
-        <v>25.776544826186399</v>
+        <f t="shared" si="24"/>
+        <v>3.7357311342299133</v>
       </c>
       <c r="G78" s="1">
-        <f>SQRT(3)*O78/P78*(SQRT(3)/2*M78+0.5*N78)</f>
-        <v>96.199374930210936</v>
+        <f t="shared" si="25"/>
+        <v>13.941938395682744</v>
       </c>
       <c r="H78" s="1">
-        <f>SQRT(3)*O78/P78*(-SQRT(3)/2*M78+0.5*N78)</f>
-        <v>-70.422830104024541</v>
+        <f t="shared" si="26"/>
+        <v>-10.206207261452832</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J78" s="1">
         <f>-H78</f>
-        <v>70.422830104024541</v>
+        <v>10.206207261452832</v>
       </c>
       <c r="K78" s="1">
         <f>F78</f>
-        <v>25.776544826186399</v>
+        <v>3.7357311342299133</v>
       </c>
       <c r="L78" s="1">
         <v>15</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="24"/>
-        <v>13.32977640273884</v>
+        <f t="shared" si="27"/>
+        <v>1.9318516525708462</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="24"/>
-        <v>3.5717028226025223</v>
+        <f t="shared" si="27"/>
+        <v>0.5176380902322496</v>
       </c>
       <c r="O78" s="1">
         <v>100</v>
@@ -3542,77 +3542,77 @@
         <v>24</v>
       </c>
       <c r="Q78" s="1">
-        <f>(O78-J78-K78)/4</f>
-        <v>0.950156267447265</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401079315</v>
       </c>
       <c r="R78" s="1">
+        <f t="shared" si="29"/>
+        <v>26.617619031805731</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="29"/>
+        <v>28.485484598920689</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="30"/>
+        <v>56.97096919784137</v>
+      </c>
+      <c r="U78" s="1">
+        <f t="shared" si="31"/>
+        <v>46.764761936388538</v>
+      </c>
+      <c r="V78" s="1">
+        <f t="shared" si="32"/>
+        <v>43.029030802158623</v>
+      </c>
+      <c r="W78" s="1">
+        <f t="shared" ref="W78:W100" si="33">T78/O78</f>
+        <v>0.5697096919784137</v>
+      </c>
+      <c r="X78" s="1">
+        <f t="shared" ref="X78:X100" si="34">U78/O78</f>
+        <v>0.46764761936388538</v>
+      </c>
+      <c r="Y78" s="1">
+        <f t="shared" ref="Y78:Y100" si="35">V78/O78</f>
+        <v>0.43029030802158624</v>
+      </c>
+    </row>
+    <row r="79" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D79" s="11"/>
+      <c r="F79" s="1">
+        <f t="shared" si="24"/>
+        <v>7.2168783652224198</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="25"/>
-        <v>36.161571319459533</v>
-      </c>
-      <c r="S78" s="1">
-        <f t="shared" si="25"/>
-        <v>49.049843732552731</v>
-      </c>
-      <c r="T78" s="1">
-        <f>O78-Q78*2</f>
-        <v>98.099687465105475</v>
-      </c>
-      <c r="U78" s="1">
-        <f>O78-R78*2</f>
-        <v>27.676857361080934</v>
-      </c>
-      <c r="V78" s="1">
-        <f>O78-2*S78</f>
-        <v>1.9003125348945389</v>
-      </c>
-      <c r="W78" s="1">
-        <f t="shared" ref="W78:W100" si="26">T78/O78</f>
-        <v>0.98099687465105478</v>
-      </c>
-      <c r="X78" s="1">
-        <f t="shared" ref="X78:X100" si="27">U78/O78</f>
-        <v>0.27676857361080937</v>
-      </c>
-      <c r="Y78" s="1">
-        <f t="shared" ref="Y78:Y100" si="28">V78/O78</f>
-        <v>1.9003125348945389E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D79" s="14"/>
-      <c r="F79" s="1">
-        <f>SQRT(3)*N79*O79/P79</f>
-        <v>49.796460720034695</v>
-      </c>
-      <c r="G79" s="1">
-        <f>SQRT(3)*O79/P79*(SQRT(3)/2*M79+0.5*N79)</f>
-        <v>99.592921435210442</v>
+        <v>14.433756729740644</v>
       </c>
       <c r="H79" s="1">
-        <f>SQRT(3)*O79/P79*(-SQRT(3)/2*M79+0.5*N79)</f>
-        <v>-49.796460715175748</v>
+        <f t="shared" si="26"/>
+        <v>-7.216878364518224</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J79" s="8">
         <f>-H79</f>
-        <v>49.796460715175748</v>
+        <v>7.216878364518224</v>
       </c>
       <c r="K79" s="8">
         <f>F79</f>
-        <v>49.796460720034695</v>
+        <v>7.2168783652224198</v>
       </c>
       <c r="L79" s="4">
         <v>30</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="24"/>
-        <v>11.951150572030896</v>
+        <f t="shared" si="27"/>
+        <v>1.7320508075407095</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="24"/>
-        <v>6.9000000003366377</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000487881</v>
       </c>
       <c r="O79" s="1">
         <v>100</v>
@@ -3621,77 +3621,77 @@
         <v>24</v>
       </c>
       <c r="Q79" s="1">
-        <f>(O79-J79-K79)/4</f>
-        <v>0.1017696411973894</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564841</v>
       </c>
       <c r="R79" s="1">
+        <f t="shared" si="29"/>
+        <v>24.999999999823952</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="29"/>
+        <v>28.608439182435163</v>
+      </c>
+      <c r="T79" s="8">
+        <f t="shared" si="30"/>
+        <v>57.216878364870318</v>
+      </c>
+      <c r="U79" s="8">
+        <f t="shared" si="31"/>
+        <v>50.000000000352095</v>
+      </c>
+      <c r="V79" s="8">
+        <f t="shared" si="32"/>
+        <v>42.783121635129675</v>
+      </c>
+      <c r="W79" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57216878364870316</v>
+      </c>
+      <c r="X79" s="1">
+        <f t="shared" si="34"/>
+        <v>0.50000000000352096</v>
+      </c>
+      <c r="Y79" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="80" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D80" s="11"/>
+      <c r="F80" s="1">
+        <f t="shared" si="24"/>
+        <v>10.206207262027805</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="25"/>
-        <v>24.999999998785263</v>
-      </c>
-      <c r="S79" s="1">
-        <f t="shared" si="25"/>
-        <v>49.898230358802607</v>
-      </c>
-      <c r="T79" s="8">
-        <f>O79-Q79*2</f>
-        <v>99.796460717605214</v>
-      </c>
-      <c r="U79" s="8">
-        <f>O79-R79*2</f>
-        <v>50.000000002429474</v>
-      </c>
-      <c r="V79" s="8">
-        <f>O79-2*S79</f>
-        <v>0.20353928239478591</v>
-      </c>
-      <c r="W79" s="1">
+        <v>13.94193839547229</v>
+      </c>
+      <c r="H80" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605218</v>
-      </c>
-      <c r="X79" s="1">
-        <f t="shared" si="27"/>
-        <v>0.50000000002429479</v>
-      </c>
-      <c r="Y79" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D80" s="14"/>
-      <c r="F80" s="1">
-        <f>SQRT(3)*N80*O80/P80</f>
-        <v>70.422830107991857</v>
-      </c>
-      <c r="G80" s="1">
-        <f>SQRT(3)*O80/P80*(SQRT(3)/2*M80+0.5*N80)</f>
-        <v>96.1993749287588</v>
-      </c>
-      <c r="H80" s="1">
-        <f>SQRT(3)*O80/P80*(-SQRT(3)/2*M80+0.5*N80)</f>
-        <v>-25.776544820766944</v>
+        <v>-3.7357311334444852</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J80" s="1">
         <f>-H80</f>
-        <v>25.776544820766944</v>
+        <v>3.7357311334444852</v>
       </c>
       <c r="K80" s="1">
         <f>F80</f>
-        <v>70.422830107991857</v>
+        <v>10.206207262027805</v>
       </c>
       <c r="L80" s="1">
         <v>45</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="24"/>
-        <v>9.7580735799620602</v>
+        <f t="shared" si="27"/>
+        <v>1.4142135623133421</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="24"/>
-        <v>9.7580735807866521</v>
+        <f t="shared" si="27"/>
+        <v>1.414213562432848</v>
       </c>
       <c r="O80" s="1">
         <v>100</v>
@@ -3700,77 +3700,77 @@
         <v>24</v>
       </c>
       <c r="Q80" s="1">
-        <f>(O80-J80-K80)/4</f>
-        <v>0.95015626781029994</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401131927</v>
       </c>
       <c r="R80" s="1">
+        <f t="shared" si="29"/>
+        <v>23.382380967854168</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="29"/>
+        <v>28.485484598868069</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969197736146</v>
+      </c>
+      <c r="U80" s="1">
+        <f t="shared" si="31"/>
+        <v>53.235238064291664</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" si="32"/>
+        <v>43.029030802263861</v>
+      </c>
+      <c r="W80" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197736143</v>
+      </c>
+      <c r="X80" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238064291668</v>
+      </c>
+      <c r="Y80" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802263862</v>
+      </c>
+    </row>
+    <row r="81" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D81" s="11"/>
+      <c r="F81" s="1">
+        <f t="shared" si="24"/>
+        <v>12.500000000406567</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="25"/>
-        <v>13.838428678193772</v>
-      </c>
-      <c r="S80" s="1">
-        <f t="shared" si="25"/>
-        <v>49.0498437321897</v>
-      </c>
-      <c r="T80" s="1">
-        <f>O80-Q80*2</f>
-        <v>98.0996874643794</v>
-      </c>
-      <c r="U80" s="1">
-        <f>O80-R80*2</f>
-        <v>72.323142643612456</v>
-      </c>
-      <c r="V80" s="1">
-        <f>O80-2*S80</f>
-        <v>1.9003125356205999</v>
-      </c>
-      <c r="W80" s="1">
+        <v>12.499999999593431</v>
+      </c>
+      <c r="H81" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687464379404</v>
-      </c>
-      <c r="X80" s="1">
-        <f t="shared" si="27"/>
-        <v>0.72323142643612459</v>
-      </c>
-      <c r="Y80" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125356205998E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D81" s="14"/>
-      <c r="F81" s="1">
-        <f>SQRT(3)*N81*O81/P81</f>
-        <v>86.250000002805322</v>
-      </c>
-      <c r="G81" s="1">
-        <f>SQRT(3)*O81/P81*(SQRT(3)/2*M81+0.5*N81)</f>
-        <v>86.249999997194678</v>
-      </c>
-      <c r="H81" s="1">
-        <f>SQRT(3)*O81/P81*(-SQRT(3)/2*M81+0.5*N81)</f>
-        <v>5.610641049812567E-9</v>
+        <v>8.1313598921962723E-10</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J81" s="1">
         <f>H81</f>
-        <v>5.610641049812567E-9</v>
+        <v>8.1313598921962723E-10</v>
       </c>
       <c r="K81" s="1">
         <f>G81</f>
-        <v>86.249999997194678</v>
+        <v>12.499999999593431</v>
       </c>
       <c r="L81" s="1">
         <v>60</v>
       </c>
       <c r="M81" s="1">
-        <f>M35</f>
-        <v>6.8999999993267238</v>
+        <f t="shared" ref="M81:N100" si="36">M35</f>
+        <v>0.99999999990242372</v>
       </c>
       <c r="N81" s="1">
-        <f>N35</f>
-        <v>11.951150572613971</v>
+        <f t="shared" si="36"/>
+        <v>1.732050807625213</v>
       </c>
       <c r="O81" s="1">
         <v>100</v>
@@ -3779,77 +3779,77 @@
         <v>24</v>
       </c>
       <c r="Q81" s="1">
-        <f>(O81-J81-K81)/4</f>
-        <v>3.4374999992986695</v>
+        <f t="shared" si="28"/>
+        <v>21.87499999989836</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81:S84" si="29">Q81+J81/2</f>
-        <v>3.4375000021039899</v>
+        <f t="shared" ref="R81:S84" si="37">Q81+J81/2</f>
+        <v>21.875000000304929</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="29"/>
-        <v>46.562500000701327</v>
+        <f t="shared" si="37"/>
+        <v>28.125000000101643</v>
       </c>
       <c r="T81" s="1">
-        <f>O81-Q81*2</f>
-        <v>93.125000001402668</v>
+        <f t="shared" si="30"/>
+        <v>56.250000000203279</v>
       </c>
       <c r="U81" s="1">
-        <f>O81-R81*2</f>
-        <v>93.124999995792024</v>
+        <f t="shared" si="31"/>
+        <v>56.249999999390141</v>
       </c>
       <c r="V81" s="1">
-        <f>O81-2*S81</f>
-        <v>6.874999998597346</v>
+        <f t="shared" si="32"/>
+        <v>43.749999999796714</v>
       </c>
       <c r="W81" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56250000000203282</v>
+      </c>
+      <c r="X81" s="1">
+        <f t="shared" si="34"/>
+        <v>0.56249999999390143</v>
+      </c>
+      <c r="Y81" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43749999999796713</v>
+      </c>
+    </row>
+    <row r="82" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D82" s="11"/>
+      <c r="F82" s="1">
+        <f t="shared" si="24"/>
+        <v>13.941938395893201</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="25"/>
+        <v>10.206207260877857</v>
+      </c>
+      <c r="H82" s="1">
         <f t="shared" si="26"/>
-        <v>0.93125000001402669</v>
-      </c>
-      <c r="X81" s="1">
-        <f t="shared" si="27"/>
-        <v>0.93124999995792024</v>
-      </c>
-      <c r="Y81" s="1">
-        <f t="shared" si="28"/>
-        <v>6.8749999985973462E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D82" s="14"/>
-      <c r="F82" s="1">
-        <f>SQRT(3)*N82*O82/P82</f>
-        <v>96.199374931663087</v>
-      </c>
-      <c r="G82" s="1">
-        <f>SQRT(3)*O82/P82*(SQRT(3)/2*M82+0.5*N82)</f>
-        <v>70.422830100057212</v>
-      </c>
-      <c r="H82" s="1">
-        <f>SQRT(3)*O82/P82*(-SQRT(3)/2*M82+0.5*N82)</f>
-        <v>25.776544831605872</v>
+        <v>3.7357311350153437</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J82" s="1">
         <f>H82</f>
-        <v>25.776544831605872</v>
+        <v>3.7357311350153437</v>
       </c>
       <c r="K82" s="1">
         <f>G82</f>
-        <v>70.422830100057212</v>
+        <v>10.206207260877857</v>
       </c>
       <c r="L82" s="1">
         <v>75</v>
       </c>
       <c r="M82" s="1">
-        <f>M36</f>
-        <v>3.5717028214761077</v>
+        <f t="shared" si="36"/>
+        <v>0.51763809006900108</v>
       </c>
       <c r="N82" s="1">
-        <f>N36</f>
-        <v>13.329776403040661</v>
+        <f t="shared" si="36"/>
+        <v>1.9318516526145886</v>
       </c>
       <c r="O82" s="1">
         <v>100</v>
@@ -3858,77 +3858,77 @@
         <v>24</v>
       </c>
       <c r="Q82" s="1">
-        <f>(O82-J82-K82)/4</f>
-        <v>0.95015626708422829</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401026699</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="29"/>
-        <v>13.838428682887164</v>
+        <f t="shared" si="37"/>
+        <v>23.38238096853437</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="29"/>
-        <v>49.049843732915768</v>
+        <f t="shared" si="37"/>
+        <v>28.485484598973301</v>
       </c>
       <c r="T82" s="1">
-        <f>O82-Q82*2</f>
-        <v>98.099687465831551</v>
+        <f t="shared" si="30"/>
+        <v>56.970969197946602</v>
       </c>
       <c r="U82" s="1">
-        <f>O82-R82*2</f>
-        <v>72.323142634225675</v>
+        <f t="shared" si="31"/>
+        <v>53.235238062931259</v>
       </c>
       <c r="V82" s="1">
-        <f>O82-2*S82</f>
-        <v>1.9003125341684637</v>
+        <f t="shared" si="32"/>
+        <v>43.029030802053398</v>
       </c>
       <c r="W82" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197946597</v>
+      </c>
+      <c r="X82" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238062931256</v>
+      </c>
+      <c r="Y82" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802053397</v>
+      </c>
+    </row>
+    <row r="83" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D83" s="11"/>
+      <c r="F83" s="1">
+        <f t="shared" si="24"/>
+        <v>14.433756729740644</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="25"/>
+        <v>7.216878363814029</v>
+      </c>
+      <c r="H83" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687465831553</v>
-      </c>
-      <c r="X82" s="1">
-        <f t="shared" si="27"/>
-        <v>0.72323142634225679</v>
-      </c>
-      <c r="Y82" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125341684638E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D83" s="14"/>
-      <c r="F83" s="1">
-        <f>SQRT(3)*N83*O83/P83</f>
-        <v>99.592921435210442</v>
-      </c>
-      <c r="G83" s="1">
-        <f>SQRT(3)*O83/P83*(SQRT(3)/2*M83+0.5*N83)</f>
-        <v>49.796460710316801</v>
-      </c>
-      <c r="H83" s="1">
-        <f>SQRT(3)*O83/P83*(-SQRT(3)/2*M83+0.5*N83)</f>
-        <v>49.796460724893649</v>
+        <v>7.2168783659266147</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J83" s="1">
         <f>H83</f>
-        <v>49.796460724893649</v>
+        <v>7.2168783659266147</v>
       </c>
       <c r="K83" s="1">
         <f>G83</f>
-        <v>49.796460710316801</v>
+        <v>7.216878363814029</v>
       </c>
       <c r="L83" s="1">
         <v>90</v>
       </c>
       <c r="M83" s="1">
-        <f>M37</f>
-        <v>-1.1661476657367706E-9</v>
+        <f t="shared" si="36"/>
+        <v>-1.6900690807779284E-10</v>
       </c>
       <c r="N83" s="1">
-        <f>N37</f>
-        <v>13.8</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="O83" s="1">
         <v>100</v>
@@ -3937,77 +3937,77 @@
         <v>24</v>
       </c>
       <c r="Q83" s="1">
-        <f>(O83-J83-K83)/4</f>
-        <v>0.10176964119738763</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564837</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="29"/>
-        <v>25.00000000364421</v>
+        <f t="shared" si="37"/>
+        <v>25.000000000528146</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="29"/>
-        <v>49.898230358802607</v>
+        <f t="shared" si="37"/>
+        <v>28.608439182435163</v>
       </c>
       <c r="T83" s="1">
-        <f>O83-Q83*2</f>
-        <v>99.796460717605228</v>
+        <f t="shared" si="30"/>
+        <v>57.216878364870325</v>
       </c>
       <c r="U83" s="1">
-        <f>O83-R83*2</f>
-        <v>49.999999992711579</v>
+        <f t="shared" si="31"/>
+        <v>49.999999998943707</v>
       </c>
       <c r="V83" s="1">
-        <f>O83-2*S83</f>
-        <v>0.20353928239478591</v>
+        <f t="shared" si="32"/>
+        <v>42.783121635129675</v>
       </c>
       <c r="W83" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57216878364870327</v>
+      </c>
+      <c r="X83" s="1">
+        <f t="shared" si="34"/>
+        <v>0.49999999998943706</v>
+      </c>
+      <c r="Y83" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="84" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D84" s="11"/>
+      <c r="F84" s="1">
+        <f t="shared" si="24"/>
+        <v>13.941938395261834</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="25"/>
+        <v>3.7357311326590557</v>
+      </c>
+      <c r="H84" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605229</v>
-      </c>
-      <c r="X83" s="1">
-        <f t="shared" si="27"/>
-        <v>0.4999999999271158</v>
-      </c>
-      <c r="Y83" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D84" s="14"/>
-      <c r="F84" s="1">
-        <f>SQRT(3)*N84*O84/P84</f>
-        <v>96.199374927306664</v>
-      </c>
-      <c r="G84" s="1">
-        <f>SQRT(3)*O84/P84*(SQRT(3)/2*M84+0.5*N84)</f>
-        <v>25.776544815347489</v>
-      </c>
-      <c r="H84" s="1">
-        <f>SQRT(3)*O84/P84*(-SQRT(3)/2*M84+0.5*N84)</f>
-        <v>70.422830111959172</v>
+        <v>10.20620726260278</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J84" s="1">
         <f>H84</f>
-        <v>70.422830111959172</v>
+        <v>10.20620726260278</v>
       </c>
       <c r="K84" s="1">
         <f>G84</f>
-        <v>25.776544815347489</v>
+        <v>3.7357311326590557</v>
       </c>
       <c r="L84" s="1">
         <v>105</v>
       </c>
       <c r="M84" s="1">
-        <f>M38</f>
-        <v>-3.571702823728935</v>
+        <f t="shared" si="36"/>
+        <v>-0.5176380903954978</v>
       </c>
       <c r="N84" s="1">
-        <f>N38</f>
-        <v>13.329776402437018</v>
+        <f t="shared" si="36"/>
+        <v>1.9318516525271039</v>
       </c>
       <c r="O84" s="1">
         <v>100</v>
@@ -4016,77 +4016,77 @@
         <v>24</v>
       </c>
       <c r="Q84" s="1">
-        <f>(O84-J84-K84)/4</f>
-        <v>0.95015626817333487</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401184543</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="29"/>
-        <v>36.161571324152924</v>
+        <f t="shared" si="37"/>
+        <v>26.617619032485933</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="29"/>
-        <v>49.04984373182667</v>
+        <f t="shared" si="37"/>
+        <v>28.485484598815461</v>
       </c>
       <c r="T84" s="1">
-        <f>O84-Q84*2</f>
-        <v>98.099687463653325</v>
+        <f t="shared" si="30"/>
+        <v>56.970969197630914</v>
       </c>
       <c r="U84" s="1">
-        <f>O84-R84*2</f>
-        <v>27.676857351694153</v>
+        <f t="shared" si="31"/>
+        <v>46.764761935028133</v>
       </c>
       <c r="V84" s="1">
-        <f>O84-2*S84</f>
-        <v>1.9003125363466609</v>
+        <f t="shared" si="32"/>
+        <v>43.029030802369078</v>
       </c>
       <c r="W84" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197630916</v>
+      </c>
+      <c r="X84" s="1">
+        <f t="shared" si="34"/>
+        <v>0.46764761935028132</v>
+      </c>
+      <c r="Y84" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802369078</v>
+      </c>
+    </row>
+    <row r="85" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D85" s="11"/>
+      <c r="F85" s="1">
+        <f t="shared" si="24"/>
+        <v>12.499999999186864</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="25"/>
+        <v>-1.6262711772048017E-9</v>
+      </c>
+      <c r="H85" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687463653329</v>
-      </c>
-      <c r="X84" s="1">
-        <f t="shared" si="27"/>
-        <v>0.27676857351694151</v>
-      </c>
-      <c r="Y84" s="1">
-        <f t="shared" si="28"/>
-        <v>1.900312536346661E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D85" s="14"/>
-      <c r="F85" s="1">
-        <f>SQRT(3)*N85*O85/P85</f>
-        <v>86.24999999438937</v>
-      </c>
-      <c r="G85" s="1">
-        <f>SQRT(3)*O85/P85*(SQRT(3)/2*M85+0.5*N85)</f>
-        <v>-1.1221275689749512E-8</v>
-      </c>
-      <c r="H85" s="1">
-        <f>SQRT(3)*O85/P85*(-SQRT(3)/2*M85+0.5*N85)</f>
-        <v>86.25000000561063</v>
+        <v>12.500000000813133</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J85" s="1">
         <f>F85</f>
-        <v>86.24999999438937</v>
+        <v>12.499999999186864</v>
       </c>
       <c r="K85" s="1">
         <f>-G85</f>
-        <v>1.1221275689749512E-8</v>
+        <v>1.6262711772048017E-9</v>
       </c>
       <c r="L85" s="1">
         <v>120</v>
       </c>
       <c r="M85" s="1">
-        <f>M39</f>
-        <v>-6.9000000013465534</v>
+        <f t="shared" si="36"/>
+        <v>-1.0000000001951526</v>
       </c>
       <c r="N85" s="1">
-        <f>N39</f>
-        <v>11.951150571447821</v>
+        <f t="shared" si="36"/>
+        <v>1.7320508074562058</v>
       </c>
       <c r="O85" s="1">
         <v>100</v>
@@ -4095,77 +4095,77 @@
         <v>24</v>
       </c>
       <c r="Q85" s="1">
-        <f>(O85-J85-K85)/4</f>
-        <v>3.4374999985973385</v>
+        <f t="shared" si="28"/>
+        <v>21.874999999796714</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:S88" si="30">Q85+J85/2</f>
-        <v>46.562499995792024</v>
+        <f t="shared" ref="R85:S88" si="38">Q85+J85/2</f>
+        <v>28.124999999390145</v>
       </c>
       <c r="S85" s="1">
+        <f t="shared" si="38"/>
+        <v>28.125000000203279</v>
+      </c>
+      <c r="T85" s="1">
         <f t="shared" si="30"/>
-        <v>46.562500001402661</v>
-      </c>
-      <c r="T85" s="1">
-        <f>O85-Q85*2</f>
-        <v>93.125000002805322</v>
+        <v>56.250000000406573</v>
       </c>
       <c r="U85" s="1">
-        <f>O85-R85*2</f>
-        <v>6.8750000084159524</v>
+        <f t="shared" si="31"/>
+        <v>43.750000001219711</v>
       </c>
       <c r="V85" s="1">
-        <f>O85-2*S85</f>
-        <v>6.8749999971946778</v>
+        <f t="shared" si="32"/>
+        <v>43.749999999593442</v>
       </c>
       <c r="W85" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56250000000406575</v>
+      </c>
+      <c r="X85" s="1">
+        <f t="shared" si="34"/>
+        <v>0.43750000001219713</v>
+      </c>
+      <c r="Y85" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43749999999593442</v>
+      </c>
+    </row>
+    <row r="86" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D86" s="11"/>
+      <c r="F86" s="1">
+        <f t="shared" si="24"/>
+        <v>10.206207260302884</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="25"/>
+        <v>-3.7357311358007705</v>
+      </c>
+      <c r="H86" s="1">
         <f t="shared" si="26"/>
-        <v>0.93125000002805325</v>
-      </c>
-      <c r="X85" s="1">
-        <f t="shared" si="27"/>
-        <v>6.8750000084159518E-2</v>
-      </c>
-      <c r="Y85" s="1">
-        <f t="shared" si="28"/>
-        <v>6.8749999971946779E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D86" s="14"/>
-      <c r="F86" s="1">
-        <f>SQRT(3)*N86*O86/P86</f>
-        <v>70.422830096089896</v>
-      </c>
-      <c r="G86" s="1">
-        <f>SQRT(3)*O86/P86*(SQRT(3)/2*M86+0.5*N86)</f>
-        <v>-25.776544837025323</v>
-      </c>
-      <c r="H86" s="1">
-        <f>SQRT(3)*O86/P86*(-SQRT(3)/2*M86+0.5*N86)</f>
-        <v>96.199374933115237</v>
+        <v>13.941938396103653</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J86" s="1">
         <f>F86</f>
-        <v>70.422830096089896</v>
+        <v>10.206207260302884</v>
       </c>
       <c r="K86" s="1">
         <f>-G86</f>
-        <v>25.776544837025323</v>
+        <v>3.7357311358007705</v>
       </c>
       <c r="L86" s="1">
         <v>135</v>
       </c>
       <c r="M86" s="1">
-        <f>M40</f>
-        <v>-9.7580735816112441</v>
+        <f t="shared" si="36"/>
+        <v>-1.4142135625523542</v>
       </c>
       <c r="N86" s="1">
-        <f>N40</f>
-        <v>9.7580735791374682</v>
+        <f t="shared" si="36"/>
+        <v>1.4142135621938359</v>
       </c>
       <c r="O86" s="1">
         <v>100</v>
@@ -4174,77 +4174,77 @@
         <v>24</v>
       </c>
       <c r="Q86" s="1">
-        <f>(O86-J86-K86)/4</f>
-        <v>0.95015626672119513</v>
+        <f t="shared" si="28"/>
+        <v>21.514515400974084</v>
       </c>
       <c r="R86" s="1">
+        <f t="shared" si="38"/>
+        <v>26.617619031125525</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="38"/>
+        <v>28.485484599025909</v>
+      </c>
+      <c r="T86" s="1">
         <f t="shared" si="30"/>
-        <v>36.161571314766142</v>
-      </c>
-      <c r="S86" s="1">
-        <f t="shared" si="30"/>
-        <v>49.049843733278806</v>
-      </c>
-      <c r="T86" s="1">
-        <f>O86-Q86*2</f>
-        <v>98.099687466557612</v>
+        <v>56.970969198051833</v>
       </c>
       <c r="U86" s="1">
-        <f>O86-R86*2</f>
-        <v>27.676857370467715</v>
+        <f t="shared" si="31"/>
+        <v>46.764761937748951</v>
       </c>
       <c r="V86" s="1">
-        <f>O86-2*S86</f>
-        <v>1.9003125334423885</v>
+        <f t="shared" si="32"/>
+        <v>43.029030801948181</v>
       </c>
       <c r="W86" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969198051835</v>
+      </c>
+      <c r="X86" s="1">
+        <f t="shared" si="34"/>
+        <v>0.4676476193774895</v>
+      </c>
+      <c r="Y86" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030801948182</v>
+      </c>
+    </row>
+    <row r="87" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D87" s="11"/>
+      <c r="F87" s="1">
+        <f t="shared" si="24"/>
+        <v>7.2168783631098288</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="25"/>
+        <v>-7.2168783666308132</v>
+      </c>
+      <c r="H87" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687466557617</v>
-      </c>
-      <c r="X86" s="1">
-        <f t="shared" si="27"/>
-        <v>0.27676857370467717</v>
-      </c>
-      <c r="Y86" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125334423884E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D87" s="14"/>
-      <c r="F87" s="1">
-        <f>SQRT(3)*N87*O87/P87</f>
-        <v>49.796460705457825</v>
-      </c>
-      <c r="G87" s="1">
-        <f>SQRT(3)*O87/P87*(SQRT(3)/2*M87+0.5*N87)</f>
-        <v>-49.796460729752617</v>
-      </c>
-      <c r="H87" s="1">
-        <f>SQRT(3)*O87/P87*(-SQRT(3)/2*M87+0.5*N87)</f>
-        <v>99.592921435210442</v>
+        <v>14.433756729740644</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J87" s="1">
         <f>F87</f>
-        <v>49.796460705457825</v>
+        <v>7.2168783631098288</v>
       </c>
       <c r="K87" s="1">
         <f>-G87</f>
-        <v>49.796460729752617</v>
+        <v>7.2168783666308132</v>
       </c>
       <c r="L87" s="1">
         <v>150</v>
       </c>
       <c r="M87" s="1">
-        <f>M41</f>
-        <v>-11.951150573197046</v>
+        <f t="shared" si="36"/>
+        <v>-1.7320508077097168</v>
       </c>
       <c r="N87" s="1">
-        <f>N41</f>
-        <v>6.8999999983168072</v>
+        <f t="shared" si="36"/>
+        <v>0.99999999975605902</v>
       </c>
       <c r="O87" s="1">
         <v>100</v>
@@ -4253,77 +4253,77 @@
         <v>24</v>
       </c>
       <c r="Q87" s="1">
-        <f>(O87-J87-K87)/4</f>
-        <v>0.1017696411973894</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564841</v>
       </c>
       <c r="R87" s="1">
+        <f t="shared" si="38"/>
+        <v>24.999999999119755</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="38"/>
+        <v>28.608439182435163</v>
+      </c>
+      <c r="T87" s="1">
         <f t="shared" si="30"/>
-        <v>24.999999993926302</v>
-      </c>
-      <c r="S87" s="1">
-        <f t="shared" si="30"/>
-        <v>49.898230358802607</v>
-      </c>
-      <c r="T87" s="1">
-        <f>O87-Q87*2</f>
-        <v>99.796460717605214</v>
+        <v>57.216878364870318</v>
       </c>
       <c r="U87" s="1">
-        <f>O87-R87*2</f>
-        <v>50.000000012147396</v>
+        <f t="shared" si="31"/>
+        <v>50.00000000176049</v>
       </c>
       <c r="V87" s="1">
-        <f>O87-2*S87</f>
-        <v>0.20353928239478591</v>
+        <f t="shared" si="32"/>
+        <v>42.783121635129675</v>
       </c>
       <c r="W87" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57216878364870316</v>
+      </c>
+      <c r="X87" s="1">
+        <f t="shared" si="34"/>
+        <v>0.50000000001760492</v>
+      </c>
+      <c r="Y87" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="88" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D88" s="11"/>
+      <c r="F88" s="1">
+        <f t="shared" si="24"/>
+        <v>3.7357311318736302</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="25"/>
+        <v>-10.206207263177749</v>
+      </c>
+      <c r="H88" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605218</v>
-      </c>
-      <c r="X87" s="1">
-        <f t="shared" si="27"/>
-        <v>0.50000000012147394</v>
-      </c>
-      <c r="Y87" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D88" s="14"/>
-      <c r="F88" s="1">
-        <f>SQRT(3)*N88*O88/P88</f>
-        <v>25.776544809928051</v>
-      </c>
-      <c r="G88" s="1">
-        <f>SQRT(3)*O88/P88*(SQRT(3)/2*M88+0.5*N88)</f>
-        <v>-70.422830115926459</v>
-      </c>
-      <c r="H88" s="1">
-        <f>SQRT(3)*O88/P88*(-SQRT(3)/2*M88+0.5*N88)</f>
-        <v>96.199374925854528</v>
+        <v>13.941938395051379</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J88" s="1">
         <f>F88</f>
-        <v>25.776544809928051</v>
+        <v>3.7357311318736302</v>
       </c>
       <c r="K88" s="1">
         <f>-G88</f>
-        <v>70.422830115926459</v>
+        <v>10.206207263177749</v>
       </c>
       <c r="L88" s="1">
         <v>165</v>
       </c>
       <c r="M88" s="1">
-        <f>M42</f>
-        <v>-13.32977640334248</v>
+        <f t="shared" si="36"/>
+        <v>-1.9318516526583305</v>
       </c>
       <c r="N88" s="1">
-        <f>N42</f>
-        <v>3.571702820349699</v>
+        <f t="shared" si="36"/>
+        <v>0.51763808990575344</v>
       </c>
       <c r="O88" s="1">
         <v>100</v>
@@ -4332,77 +4332,77 @@
         <v>24</v>
       </c>
       <c r="Q88" s="1">
-        <f>(O88-J88-K88)/4</f>
-        <v>0.95015626853637158</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401237155</v>
       </c>
       <c r="R88" s="1">
+        <f t="shared" si="38"/>
+        <v>23.382380967173969</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="38"/>
+        <v>28.485484598762845</v>
+      </c>
+      <c r="T88" s="1">
         <f t="shared" si="30"/>
-        <v>13.838428673500397</v>
-      </c>
-      <c r="S88" s="1">
-        <f t="shared" si="30"/>
-        <v>49.049843731463625</v>
-      </c>
-      <c r="T88" s="1">
-        <f>O88-Q88*2</f>
-        <v>98.09968746292725</v>
+        <v>56.97096919752569</v>
       </c>
       <c r="U88" s="1">
-        <f>O88-R88*2</f>
-        <v>72.323142652999209</v>
+        <f t="shared" si="31"/>
+        <v>53.235238065652062</v>
       </c>
       <c r="V88" s="1">
-        <f>O88-2*S88</f>
-        <v>1.9003125370727503</v>
+        <f t="shared" si="32"/>
+        <v>43.02903080247431</v>
       </c>
       <c r="W88" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197525689</v>
+      </c>
+      <c r="X88" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238065652057</v>
+      </c>
+      <c r="Y88" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802474311</v>
+      </c>
+    </row>
+    <row r="89" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D89" s="11"/>
+      <c r="F89" s="1">
+        <f t="shared" si="24"/>
+        <v>-2.4394045968405008E-9</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="25"/>
+        <v>-12.5000000012197</v>
+      </c>
+      <c r="H89" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687462927254</v>
-      </c>
-      <c r="X88" s="1">
-        <f t="shared" si="27"/>
-        <v>0.72323142652999206</v>
-      </c>
-      <c r="Y88" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125370727503E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D89" s="14"/>
-      <c r="F89" s="1">
-        <f>SQRT(3)*N89*O89/P89</f>
-        <v>-1.6831891718199454E-8</v>
-      </c>
-      <c r="G89" s="1">
-        <f>SQRT(3)*O89/P89*(SQRT(3)/2*M89+0.5*N89)</f>
-        <v>-86.250000008415952</v>
-      </c>
-      <c r="H89" s="1">
-        <f>SQRT(3)*O89/P89*(-SQRT(3)/2*M89+0.5*N89)</f>
-        <v>86.249999991584048</v>
+        <v>12.499999998780297</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J89" s="1">
         <f>-F89</f>
-        <v>1.6831891718199454E-8</v>
+        <v>2.4394045968405008E-9</v>
       </c>
       <c r="K89" s="1">
         <f>H89</f>
-        <v>86.249999991584048</v>
+        <v>12.499999998780297</v>
       </c>
       <c r="L89" s="1">
         <v>180</v>
       </c>
       <c r="M89" s="1">
-        <f>M43</f>
-        <v>-13.8</v>
+        <f t="shared" si="36"/>
+        <v>-2</v>
       </c>
       <c r="N89" s="1">
-        <f>N43</f>
-        <v>-2.3322953314735412E-9</v>
+        <f t="shared" si="36"/>
+        <v>-3.3801381615558568E-10</v>
       </c>
       <c r="O89" s="1">
         <v>100</v>
@@ -4411,74 +4411,74 @@
         <v>24</v>
       </c>
       <c r="Q89" s="1">
-        <f>(O89-J89-K89)/4</f>
-        <v>3.4374999978960155</v>
+        <f t="shared" si="28"/>
+        <v>21.874999999695074</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" ref="R89:S92" si="31">Q89+J89/2</f>
-        <v>3.4375000063119612</v>
+        <f t="shared" ref="R89:S92" si="39">Q89+J89/2</f>
+        <v>21.875000000914778</v>
       </c>
       <c r="S89" s="1">
+        <f t="shared" si="39"/>
+        <v>28.125000000304926</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="30"/>
+        <v>56.250000000609852</v>
+      </c>
+      <c r="U89" s="1">
         <f t="shared" si="31"/>
-        <v>46.562500002103988</v>
-      </c>
-      <c r="T89" s="1">
-        <f>O89-Q89*2</f>
-        <v>93.125000004207976</v>
-      </c>
-      <c r="U89" s="1">
-        <f>O89-R89*2</f>
-        <v>93.124999987376071</v>
+        <v>56.249999998170445</v>
       </c>
       <c r="V89" s="1">
-        <f>O89-2*S89</f>
-        <v>6.8749999957920238</v>
+        <f t="shared" si="32"/>
+        <v>43.749999999390148</v>
       </c>
       <c r="W89" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56250000000609857</v>
+      </c>
+      <c r="X89" s="1">
+        <f t="shared" si="34"/>
+        <v>0.56249999998170441</v>
+      </c>
+      <c r="Y89" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43749999999390149</v>
+      </c>
+    </row>
+    <row r="90" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D90" s="11"/>
+      <c r="F90" s="1">
+        <f t="shared" si="24"/>
+        <v>-3.7357311365861983</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="25"/>
+        <v>-13.941938396314111</v>
+      </c>
+      <c r="H90" s="1">
         <f t="shared" si="26"/>
-        <v>0.93125000004207981</v>
-      </c>
-      <c r="X89" s="1">
-        <f t="shared" si="27"/>
-        <v>0.93124999987376067</v>
-      </c>
-      <c r="Y89" s="1">
-        <f t="shared" si="28"/>
-        <v>6.8749999957920235E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D90" s="14"/>
-      <c r="F90" s="1">
-        <f>SQRT(3)*N90*O90/P90</f>
-        <v>-25.776544842444768</v>
-      </c>
-      <c r="G90" s="1">
-        <f>SQRT(3)*O90/P90*(SQRT(3)/2*M90+0.5*N90)</f>
-        <v>-96.199374934567345</v>
-      </c>
-      <c r="H90" s="1">
-        <f>SQRT(3)*O90/P90*(-SQRT(3)/2*M90+0.5*N90)</f>
-        <v>70.422830092122581</v>
+        <v>10.206207259727911</v>
       </c>
       <c r="J90" s="1">
         <f>-F90</f>
-        <v>25.776544842444768</v>
+        <v>3.7357311365861983</v>
       </c>
       <c r="K90" s="1">
         <f>H90</f>
-        <v>70.422830092122581</v>
+        <v>10.206207259727911</v>
       </c>
       <c r="L90" s="5">
         <v>195</v>
       </c>
       <c r="M90" s="5">
-        <f>M44</f>
-        <v>-13.329776402135197</v>
+        <f t="shared" si="36"/>
+        <v>-1.9318516524833618</v>
       </c>
       <c r="N90" s="5">
-        <f>N44</f>
-        <v>-3.5717028248553473</v>
+        <f t="shared" si="36"/>
+        <v>-0.51763809055874599</v>
       </c>
       <c r="O90" s="1">
         <v>100</v>
@@ -4487,74 +4487,74 @@
         <v>24</v>
       </c>
       <c r="Q90" s="1">
-        <f>(O90-J90-K90)/4</f>
-        <v>0.95015626635816375</v>
+        <f t="shared" si="28"/>
+        <v>21.514515400921475</v>
       </c>
       <c r="R90" s="1">
+        <f t="shared" si="39"/>
+        <v>23.382380969214573</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="39"/>
+        <v>28.485484599078529</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="30"/>
+        <v>56.97096919815705</v>
+      </c>
+      <c r="U90" s="1">
         <f t="shared" si="31"/>
-        <v>13.838428687580548</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="31"/>
-        <v>49.049843733641836</v>
-      </c>
-      <c r="T90" s="1">
-        <f>O90-Q90*2</f>
-        <v>98.099687467283673</v>
-      </c>
-      <c r="U90" s="1">
-        <f>O90-R90*2</f>
-        <v>72.323142624838908</v>
+        <v>53.235238061570854</v>
       </c>
       <c r="V90" s="1">
-        <f>O90-2*S90</f>
-        <v>1.9003125327163275</v>
+        <f t="shared" si="32"/>
+        <v>43.029030801842943</v>
       </c>
       <c r="W90" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969198157051</v>
+      </c>
+      <c r="X90" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238061570855</v>
+      </c>
+      <c r="Y90" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030801842943</v>
+      </c>
+    </row>
+    <row r="91" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D91" s="11"/>
+      <c r="F91" s="1">
+        <f t="shared" si="24"/>
+        <v>-7.2168783673350063</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="25"/>
+        <v>-14.433756729740644</v>
+      </c>
+      <c r="H91" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687467283669</v>
-      </c>
-      <c r="X90" s="1">
-        <f t="shared" si="27"/>
-        <v>0.7232314262483891</v>
-      </c>
-      <c r="Y90" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125327163275E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D91" s="14"/>
-      <c r="F91" s="1">
-        <f>SQRT(3)*N91*O91/P91</f>
-        <v>-49.79646073461155</v>
-      </c>
-      <c r="G91" s="1">
-        <f>SQRT(3)*O91/P91*(SQRT(3)/2*M91+0.5*N91)</f>
-        <v>-99.592921435210442</v>
-      </c>
-      <c r="H91" s="1">
-        <f>SQRT(3)*O91/P91*(-SQRT(3)/2*M91+0.5*N91)</f>
-        <v>49.796460700598885</v>
+        <v>7.2168783624056356</v>
       </c>
       <c r="J91" s="1">
         <f>-F91</f>
-        <v>49.79646073461155</v>
+        <v>7.2168783673350063</v>
       </c>
       <c r="K91" s="1">
         <f>H91</f>
-        <v>49.796460700598885</v>
+        <v>7.2168783624056356</v>
       </c>
       <c r="L91" s="1">
         <v>210</v>
       </c>
       <c r="M91" s="1">
-        <f>M45</f>
-        <v>-11.951150570864748</v>
+        <f t="shared" si="36"/>
+        <v>-1.7320508073717025</v>
       </c>
       <c r="N91" s="1">
-        <f>N45</f>
-        <v>-6.9000000023564665</v>
+        <f t="shared" si="36"/>
+        <v>-1.0000000003415168</v>
       </c>
       <c r="O91" s="1">
         <v>100</v>
@@ -4563,74 +4563,74 @@
         <v>24</v>
       </c>
       <c r="Q91" s="1">
-        <f>(O91-J91-K91)/4</f>
-        <v>0.10176964119739118</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564841</v>
       </c>
       <c r="R91" s="1">
+        <f t="shared" si="39"/>
+        <v>25.000000001232344</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="39"/>
+        <v>28.608439182435163</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="30"/>
+        <v>57.216878364870318</v>
+      </c>
+      <c r="U91" s="1">
         <f t="shared" si="31"/>
-        <v>25.000000008503164</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="31"/>
-        <v>49.898230358802607</v>
-      </c>
-      <c r="T91" s="1">
-        <f>O91-Q91*2</f>
-        <v>99.796460717605214</v>
-      </c>
-      <c r="U91" s="1">
-        <f>O91-R91*2</f>
-        <v>49.999999982993671</v>
+        <v>49.999999997535312</v>
       </c>
       <c r="V91" s="1">
-        <f>O91-2*S91</f>
-        <v>0.20353928239478591</v>
+        <f t="shared" si="32"/>
+        <v>42.783121635129675</v>
       </c>
       <c r="W91" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57216878364870316</v>
+      </c>
+      <c r="X91" s="1">
+        <f t="shared" si="34"/>
+        <v>0.4999999999753531</v>
+      </c>
+      <c r="Y91" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="92" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D92" s="11"/>
+      <c r="F92" s="1">
+        <f t="shared" si="24"/>
+        <v>-10.206207263752725</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="25"/>
+        <v>-13.941938394840923</v>
+      </c>
+      <c r="H92" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605218</v>
-      </c>
-      <c r="X91" s="1">
-        <f t="shared" si="27"/>
-        <v>0.4999999998299367</v>
-      </c>
-      <c r="Y91" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D92" s="14"/>
-      <c r="F92" s="1">
-        <f>SQRT(3)*N92*O92/P92</f>
-        <v>-70.422830119893817</v>
-      </c>
-      <c r="G92" s="1">
-        <f>SQRT(3)*O92/P92*(SQRT(3)/2*M92+0.5*N92)</f>
-        <v>-96.199374924402392</v>
-      </c>
-      <c r="H92" s="1">
-        <f>SQRT(3)*O92/P92*(-SQRT(3)/2*M92+0.5*N92)</f>
-        <v>25.776544804508564</v>
+        <v>3.735731131088198</v>
       </c>
       <c r="J92" s="1">
         <f>-F92</f>
-        <v>70.422830119893817</v>
+        <v>10.206207263752725</v>
       </c>
       <c r="K92" s="1">
         <f>H92</f>
-        <v>25.776544804508564</v>
+        <v>3.735731131088198</v>
       </c>
       <c r="L92" s="1">
         <v>225</v>
       </c>
       <c r="M92" s="1">
-        <f>M46</f>
-        <v>-9.7580735783128763</v>
+        <f t="shared" si="36"/>
+        <v>-1.4142135620743299</v>
       </c>
       <c r="N92" s="1">
-        <f>N46</f>
-        <v>-9.758073582435836</v>
+        <f t="shared" si="36"/>
+        <v>-1.4142135626718602</v>
       </c>
       <c r="O92" s="1">
         <v>100</v>
@@ -4639,77 +4639,77 @@
         <v>24</v>
       </c>
       <c r="Q92" s="1">
-        <f>(O92-J92-K92)/4</f>
-        <v>0.95015626889940474</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401289767</v>
       </c>
       <c r="R92" s="1">
+        <f t="shared" si="39"/>
+        <v>26.617619033166129</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="39"/>
+        <v>28.485484598710229</v>
+      </c>
+      <c r="T92" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969197420466</v>
+      </c>
+      <c r="U92" s="1">
         <f t="shared" si="31"/>
-        <v>36.161571328846314</v>
-      </c>
-      <c r="S92" s="1">
-        <f t="shared" si="31"/>
-        <v>49.049843731100594</v>
-      </c>
-      <c r="T92" s="1">
-        <f>O92-Q92*2</f>
-        <v>98.099687462201189</v>
-      </c>
-      <c r="U92" s="1">
-        <f>O92-R92*2</f>
-        <v>27.676857342307372</v>
+        <v>46.764761933667742</v>
       </c>
       <c r="V92" s="1">
-        <f>O92-2*S92</f>
-        <v>1.9003125377988113</v>
+        <f t="shared" si="32"/>
+        <v>43.029030802579541</v>
       </c>
       <c r="W92" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197420462</v>
+      </c>
+      <c r="X92" s="1">
+        <f t="shared" si="34"/>
+        <v>0.46764761933667742</v>
+      </c>
+      <c r="Y92" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802579543</v>
+      </c>
+    </row>
+    <row r="93" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D93" s="11"/>
+      <c r="F93" s="1">
+        <f t="shared" si="24"/>
+        <v>-12.500000001626271</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="25"/>
+        <v>-12.499999998373728</v>
+      </c>
+      <c r="H93" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687462201191</v>
-      </c>
-      <c r="X92" s="1">
-        <f t="shared" si="27"/>
-        <v>0.2767685734230737</v>
-      </c>
-      <c r="Y92" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125377988112E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D93" s="14"/>
-      <c r="F93" s="1">
-        <f>SQRT(3)*N93*O93/P93</f>
-        <v>-86.250000011221275</v>
-      </c>
-      <c r="G93" s="1">
-        <f>SQRT(3)*O93/P93*(SQRT(3)/2*M93+0.5*N93)</f>
-        <v>-86.249999988778725</v>
-      </c>
-      <c r="H93" s="1">
-        <f>SQRT(3)*O93/P93*(-SQRT(3)/2*M93+0.5*N93)</f>
-        <v>-2.2442551379499024E-8</v>
+        <v>-3.2525439568785089E-9</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J93" s="1">
-        <f>-G93</f>
-        <v>86.249999988778725</v>
+        <f t="shared" ref="J93:K96" si="40">-G93</f>
+        <v>12.499999998373728</v>
       </c>
       <c r="K93" s="1">
-        <f>-H93</f>
-        <v>2.2442551379499024E-8</v>
+        <f t="shared" si="40"/>
+        <v>3.2525439568785089E-9</v>
       </c>
       <c r="L93" s="1">
         <v>240</v>
       </c>
       <c r="M93" s="1">
-        <f>M47</f>
-        <v>-6.8999999973068942</v>
+        <f t="shared" si="36"/>
+        <v>-0.99999999960969477</v>
       </c>
       <c r="N93" s="1">
-        <f>N47</f>
-        <v>-11.951150573780119</v>
+        <f t="shared" si="36"/>
+        <v>-1.73205080779422</v>
       </c>
       <c r="O93" s="1">
         <v>100</v>
@@ -4718,77 +4718,77 @@
         <v>24</v>
       </c>
       <c r="Q93" s="1">
-        <f>(O93-J93-K93)/4</f>
-        <v>3.4374999971946809</v>
+        <f t="shared" si="28"/>
+        <v>21.874999999593435</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" ref="R93:S96" si="32">Q93+J93/2</f>
-        <v>46.562499991584041</v>
+        <f t="shared" ref="R93:S96" si="41">Q93+J93/2</f>
+        <v>28.124999998780297</v>
       </c>
       <c r="S93" s="1">
+        <f t="shared" si="41"/>
+        <v>28.125000000406569</v>
+      </c>
+      <c r="T93" s="1">
+        <f t="shared" si="30"/>
+        <v>56.250000000813131</v>
+      </c>
+      <c r="U93" s="1">
+        <f t="shared" si="31"/>
+        <v>43.750000002439407</v>
+      </c>
+      <c r="V93" s="1">
         <f t="shared" si="32"/>
-        <v>46.562500002805315</v>
-      </c>
-      <c r="T93" s="1">
-        <f>O93-Q93*2</f>
-        <v>93.125000005610644</v>
-      </c>
-      <c r="U93" s="1">
-        <f>O93-R93*2</f>
-        <v>6.875000016831919</v>
-      </c>
-      <c r="V93" s="1">
-        <f>O93-2*S93</f>
-        <v>6.8749999943893698</v>
+        <v>43.749999999186862</v>
       </c>
       <c r="W93" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56250000000813127</v>
+      </c>
+      <c r="X93" s="1">
+        <f t="shared" si="34"/>
+        <v>0.43750000002439404</v>
+      </c>
+      <c r="Y93" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43749999999186862</v>
+      </c>
+    </row>
+    <row r="94" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D94" s="11"/>
+      <c r="F94" s="1">
+        <f t="shared" si="24"/>
+        <v>-13.941938396524563</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="25"/>
+        <v>-10.20620725915294</v>
+      </c>
+      <c r="H94" s="1">
         <f t="shared" si="26"/>
-        <v>0.93125000005610648</v>
-      </c>
-      <c r="X93" s="1">
-        <f t="shared" si="27"/>
-        <v>6.8750000168319184E-2</v>
-      </c>
-      <c r="Y93" s="1">
-        <f t="shared" si="28"/>
-        <v>6.8749999943893692E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D94" s="14"/>
-      <c r="F94" s="1">
-        <f>SQRT(3)*N94*O94/P94</f>
-        <v>-96.199374936019481</v>
-      </c>
-      <c r="G94" s="1">
-        <f>SQRT(3)*O94/P94*(SQRT(3)/2*M94+0.5*N94)</f>
-        <v>-70.42283008815528</v>
-      </c>
-      <c r="H94" s="1">
-        <f>SQRT(3)*O94/P94*(-SQRT(3)/2*M94+0.5*N94)</f>
-        <v>-25.776544847864209</v>
+        <v>-3.7357311373716247</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J94" s="1">
-        <f>-G94</f>
-        <v>70.42283008815528</v>
+        <f t="shared" si="40"/>
+        <v>10.20620725915294</v>
       </c>
       <c r="K94" s="1">
-        <f>-H94</f>
-        <v>25.776544847864209</v>
+        <f t="shared" si="40"/>
+        <v>3.7357311373716247</v>
       </c>
       <c r="L94" s="1">
         <v>255</v>
       </c>
       <c r="M94" s="1">
-        <f>M48</f>
-        <v>-3.5717028192232863</v>
+        <f t="shared" si="36"/>
+        <v>-0.51763808974250525</v>
       </c>
       <c r="N94" s="1">
-        <f>N48</f>
-        <v>-13.329776403644303</v>
+        <f t="shared" si="36"/>
+        <v>-1.9318516527020728</v>
       </c>
       <c r="O94" s="1">
         <v>100</v>
@@ -4797,74 +4797,74 @@
         <v>24</v>
       </c>
       <c r="Q94" s="1">
-        <f>(O94-J94-K94)/4</f>
-        <v>0.95015626599512792</v>
+        <f t="shared" si="28"/>
+        <v>21.514515400868859</v>
       </c>
       <c r="R94" s="1">
+        <f t="shared" si="41"/>
+        <v>26.617619030445329</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="41"/>
+        <v>28.485484599131141</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969198262281</v>
+      </c>
+      <c r="U94" s="1">
+        <f t="shared" si="31"/>
+        <v>46.764761939109341</v>
+      </c>
+      <c r="V94" s="1">
         <f t="shared" si="32"/>
-        <v>36.161571310072766</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="32"/>
-        <v>49.049843734004867</v>
-      </c>
-      <c r="T94" s="1">
-        <f>O94-Q94*2</f>
-        <v>98.099687468009748</v>
-      </c>
-      <c r="U94" s="1">
-        <f>O94-R94*2</f>
-        <v>27.676857379854468</v>
-      </c>
-      <c r="V94" s="1">
-        <f>O94-2*S94</f>
-        <v>1.9003125319902665</v>
+        <v>43.029030801737719</v>
       </c>
       <c r="W94" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969198262278</v>
+      </c>
+      <c r="X94" s="1">
+        <f t="shared" si="34"/>
+        <v>0.46764761939109339</v>
+      </c>
+      <c r="Y94" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030801737717</v>
+      </c>
+    </row>
+    <row r="95" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D95" s="11"/>
+      <c r="F95" s="1">
+        <f t="shared" si="24"/>
+        <v>-14.433756729740644</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="25"/>
+        <v>-7.2168783617014363</v>
+      </c>
+      <c r="H95" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687468009744</v>
-      </c>
-      <c r="X94" s="1">
-        <f t="shared" si="27"/>
-        <v>0.27676857379854469</v>
-      </c>
-      <c r="Y94" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125319902666E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D95" s="14"/>
-      <c r="F95" s="1">
-        <f>SQRT(3)*N95*O95/P95</f>
-        <v>-99.592921435210442</v>
-      </c>
-      <c r="G95" s="1">
-        <f>SQRT(3)*O95/P95*(SQRT(3)/2*M95+0.5*N95)</f>
-        <v>-49.79646069573991</v>
-      </c>
-      <c r="H95" s="1">
-        <f>SQRT(3)*O95/P95*(-SQRT(3)/2*M95+0.5*N95)</f>
-        <v>-49.796460739470533</v>
+        <v>-7.2168783680392075</v>
       </c>
       <c r="J95" s="1">
-        <f>-G95</f>
-        <v>49.79646069573991</v>
+        <f t="shared" si="40"/>
+        <v>7.2168783617014363</v>
       </c>
       <c r="K95" s="1">
-        <f>-H95</f>
-        <v>49.796460739470533</v>
+        <f t="shared" si="40"/>
+        <v>7.2168783680392075</v>
       </c>
       <c r="L95" s="1">
         <v>270</v>
       </c>
       <c r="M95" s="1">
-        <f>M49</f>
-        <v>3.498449125641408E-9</v>
+        <f t="shared" si="36"/>
+        <v>5.0702161241179822E-10</v>
       </c>
       <c r="N95" s="1">
-        <f>N49</f>
-        <v>-13.8</v>
+        <f t="shared" si="36"/>
+        <v>-2</v>
       </c>
       <c r="O95" s="1">
         <v>100</v>
@@ -4873,74 +4873,74 @@
         <v>24</v>
       </c>
       <c r="Q95" s="1">
-        <f>(O95-J95-K95)/4</f>
-        <v>0.1017696411973894</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564841</v>
       </c>
       <c r="R95" s="1">
+        <f t="shared" si="41"/>
+        <v>24.999999998415561</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="41"/>
+        <v>28.608439182435163</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="30"/>
+        <v>57.216878364870318</v>
+      </c>
+      <c r="U95" s="1">
+        <f t="shared" si="31"/>
+        <v>50.000000003168878</v>
+      </c>
+      <c r="V95" s="1">
         <f t="shared" si="32"/>
-        <v>24.999999989067344</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="32"/>
-        <v>49.898230358802607</v>
-      </c>
-      <c r="T95" s="1">
-        <f>O95-Q95*2</f>
-        <v>99.796460717605214</v>
-      </c>
-      <c r="U95" s="1">
-        <f>O95-R95*2</f>
-        <v>50.000000021865311</v>
-      </c>
-      <c r="V95" s="1">
-        <f>O95-2*S95</f>
-        <v>0.20353928239478591</v>
+        <v>42.783121635129675</v>
       </c>
       <c r="W95" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57216878364870316</v>
+      </c>
+      <c r="X95" s="1">
+        <f t="shared" si="34"/>
+        <v>0.50000000003168876</v>
+      </c>
+      <c r="Y95" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="96" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D96" s="11"/>
+      <c r="F96" s="1">
+        <f t="shared" si="24"/>
+        <v>-13.941938394630471</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="25"/>
+        <v>-3.7357311303027729</v>
+      </c>
+      <c r="H96" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605218</v>
-      </c>
-      <c r="X95" s="1">
-        <f t="shared" si="27"/>
-        <v>0.5000000002186531</v>
-      </c>
-      <c r="Y95" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D96" s="14"/>
-      <c r="F96" s="1">
-        <f>SQRT(3)*N96*O96/P96</f>
-        <v>-96.199374922950255</v>
-      </c>
-      <c r="G96" s="1">
-        <f>SQRT(3)*O96/P96*(SQRT(3)/2*M96+0.5*N96)</f>
-        <v>-25.776544799089134</v>
-      </c>
-      <c r="H96" s="1">
-        <f>SQRT(3)*O96/P96*(-SQRT(3)/2*M96+0.5*N96)</f>
-        <v>-70.422830123861118</v>
+        <v>-10.206207264327698</v>
       </c>
       <c r="J96" s="1">
-        <f>-G96</f>
-        <v>25.776544799089134</v>
+        <f t="shared" si="40"/>
+        <v>3.7357311303027729</v>
       </c>
       <c r="K96" s="1">
-        <f>-H96</f>
-        <v>70.422830123861118</v>
+        <f t="shared" si="40"/>
+        <v>10.206207264327698</v>
       </c>
       <c r="L96" s="1">
         <v>285</v>
       </c>
       <c r="M96" s="1">
-        <f>M50</f>
-        <v>3.5717028259817591</v>
+        <f t="shared" si="36"/>
+        <v>0.51763809072199407</v>
       </c>
       <c r="N96" s="1">
-        <f>N50</f>
-        <v>-13.329776401833376</v>
+        <f t="shared" si="36"/>
+        <v>-1.9318516524396196</v>
       </c>
       <c r="O96" s="1">
         <v>100</v>
@@ -4949,77 +4949,77 @@
         <v>24</v>
       </c>
       <c r="Q96" s="1">
-        <f>(O96-J96-K96)/4</f>
-        <v>0.95015626926243613</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401342383</v>
       </c>
       <c r="R96" s="1">
+        <f t="shared" si="41"/>
+        <v>23.38238096649377</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="41"/>
+        <v>28.485484598657621</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969197315235</v>
+      </c>
+      <c r="U96" s="1">
+        <f t="shared" si="31"/>
+        <v>53.23523806701246</v>
+      </c>
+      <c r="V96" s="1">
         <f t="shared" si="32"/>
-        <v>13.838428668807003</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="32"/>
-        <v>49.049843730737564</v>
-      </c>
-      <c r="T96" s="1">
-        <f>O96-Q96*2</f>
-        <v>98.099687461475128</v>
-      </c>
-      <c r="U96" s="1">
-        <f>O96-R96*2</f>
-        <v>72.32314266238599</v>
-      </c>
-      <c r="V96" s="1">
-        <f>O96-2*S96</f>
-        <v>1.9003125385248723</v>
+        <v>43.029030802684758</v>
       </c>
       <c r="W96" s="1">
+        <f t="shared" si="33"/>
+        <v>0.56970969197315235</v>
+      </c>
+      <c r="X96" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238067012458</v>
+      </c>
+      <c r="Y96" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43029030802684759</v>
+      </c>
+    </row>
+    <row r="97" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D97" s="11"/>
+      <c r="F97" s="1">
+        <f t="shared" si="24"/>
+        <v>-12.499999997967159</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="25"/>
+        <v>4.0656823498014943E-9</v>
+      </c>
+      <c r="H97" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687461475127</v>
-      </c>
-      <c r="X96" s="1">
-        <f t="shared" si="27"/>
-        <v>0.72323142662385986</v>
-      </c>
-      <c r="Y96" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125385248721E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D97" s="14"/>
-      <c r="F97" s="1">
-        <f>SQRT(3)*N97*O97/P97</f>
-        <v>-86.249999985973389</v>
-      </c>
-      <c r="G97" s="1">
-        <f>SQRT(3)*O97/P97*(SQRT(3)/2*M97+0.5*N97)</f>
-        <v>2.8053205249062834E-8</v>
-      </c>
-      <c r="H97" s="1">
-        <f>SQRT(3)*O97/P97*(-SQRT(3)/2*M97+0.5*N97)</f>
-        <v>-86.250000014026611</v>
+        <v>-12.50000000203284</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J97" s="1">
         <f>G97</f>
-        <v>2.8053205249062834E-8</v>
+        <v>4.0656823498014943E-9</v>
       </c>
       <c r="K97" s="1">
         <f>-F97</f>
-        <v>86.249999985973389</v>
+        <v>12.499999997967159</v>
       </c>
       <c r="L97" s="1">
         <v>300</v>
       </c>
       <c r="M97" s="1">
-        <f>M51</f>
-        <v>6.9000000033663857</v>
+        <f t="shared" si="36"/>
+        <v>1.000000000487882</v>
       </c>
       <c r="N97" s="1">
-        <f>N51</f>
-        <v>-11.951150570281671</v>
+        <f t="shared" si="36"/>
+        <v>-1.7320508072871985</v>
       </c>
       <c r="O97" s="1">
         <v>100</v>
@@ -5028,74 +5028,74 @@
         <v>24</v>
       </c>
       <c r="Q97" s="1">
-        <f>(O97-J97-K97)/4</f>
-        <v>3.4374999964933508</v>
+        <f t="shared" si="28"/>
+        <v>21.874999999491791</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" ref="R97:S100" si="33">Q97+J97/2</f>
-        <v>3.4375000105199534</v>
+        <f t="shared" ref="R97:S100" si="42">Q97+J97/2</f>
+        <v>21.875000001524633</v>
       </c>
       <c r="S97" s="1">
+        <f t="shared" si="42"/>
+        <v>28.125000000508212</v>
+      </c>
+      <c r="T97" s="1">
+        <f t="shared" si="30"/>
+        <v>56.250000001016417</v>
+      </c>
+      <c r="U97" s="1">
+        <f t="shared" si="31"/>
+        <v>56.249999996950734</v>
+      </c>
+      <c r="V97" s="1">
+        <f t="shared" si="32"/>
+        <v>43.749999998983576</v>
+      </c>
+      <c r="W97" s="1">
         <f t="shared" si="33"/>
-        <v>46.562500003506649</v>
-      </c>
-      <c r="T97" s="1">
-        <f>O97-Q97*2</f>
-        <v>93.125000007013298</v>
-      </c>
-      <c r="U97" s="1">
-        <f>O97-R97*2</f>
-        <v>93.124999978960091</v>
-      </c>
-      <c r="V97" s="1">
-        <f>O97-2*S97</f>
-        <v>6.8749999929867016</v>
-      </c>
-      <c r="W97" s="1">
+        <v>0.5625000000101642</v>
+      </c>
+      <c r="X97" s="1">
+        <f t="shared" si="34"/>
+        <v>0.56249999996950739</v>
+      </c>
+      <c r="Y97" s="1">
+        <f t="shared" si="35"/>
+        <v>0.43749999998983574</v>
+      </c>
+    </row>
+    <row r="98" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D98" s="11"/>
+      <c r="F98" s="1">
+        <f t="shared" si="24"/>
+        <v>-10.206207258577964</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="25"/>
+        <v>3.7357311381570555</v>
+      </c>
+      <c r="H98" s="1">
         <f t="shared" si="26"/>
-        <v>0.93125000007013303</v>
-      </c>
-      <c r="X97" s="1">
-        <f t="shared" si="27"/>
-        <v>0.93124999978960088</v>
-      </c>
-      <c r="Y97" s="1">
-        <f t="shared" si="28"/>
-        <v>6.8749999929867023E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D98" s="14"/>
-      <c r="F98" s="1">
-        <f>SQRT(3)*N98*O98/P98</f>
-        <v>-70.42283008418795</v>
-      </c>
-      <c r="G98" s="1">
-        <f>SQRT(3)*O98/P98*(SQRT(3)/2*M98+0.5*N98)</f>
-        <v>25.776544853283685</v>
-      </c>
-      <c r="H98" s="1">
-        <f>SQRT(3)*O98/P98*(-SQRT(3)/2*M98+0.5*N98)</f>
-        <v>-96.199374937471646</v>
+        <v>-13.94193839673502</v>
       </c>
       <c r="J98" s="1">
         <f>G98</f>
-        <v>25.776544853283685</v>
+        <v>3.7357311381570555</v>
       </c>
       <c r="K98" s="1">
         <f>-F98</f>
-        <v>70.42283008418795</v>
+        <v>10.206207258577964</v>
       </c>
       <c r="L98" s="1">
         <v>315</v>
       </c>
       <c r="M98" s="1">
-        <f>M52</f>
-        <v>9.7580735832604262</v>
+        <f t="shared" si="36"/>
+        <v>1.4142135627913661</v>
       </c>
       <c r="N98" s="1">
-        <f>N52</f>
-        <v>-9.7580735774882861</v>
+        <f t="shared" si="36"/>
+        <v>-1.414213561954824</v>
       </c>
       <c r="O98" s="1">
         <v>100</v>
@@ -5104,74 +5104,74 @@
         <v>24</v>
       </c>
       <c r="Q98" s="1">
-        <f>(O98-J98-K98)/4</f>
-        <v>0.9501562656320921</v>
+        <f t="shared" si="28"/>
+        <v>21.514515400816247</v>
       </c>
       <c r="R98" s="1">
+        <f t="shared" si="42"/>
+        <v>23.382380969894776</v>
+      </c>
+      <c r="S98" s="1">
+        <f t="shared" si="42"/>
+        <v>28.485484599183756</v>
+      </c>
+      <c r="T98" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969198367506</v>
+      </c>
+      <c r="U98" s="1">
+        <f t="shared" si="31"/>
+        <v>53.235238060210449</v>
+      </c>
+      <c r="V98" s="1">
+        <f t="shared" si="32"/>
+        <v>43.029030801632487</v>
+      </c>
+      <c r="W98" s="1">
         <f t="shared" si="33"/>
-        <v>13.838428692273935</v>
-      </c>
-      <c r="S98" s="1">
-        <f t="shared" si="33"/>
-        <v>49.049843734367911</v>
-      </c>
-      <c r="T98" s="1">
-        <f>O98-Q98*2</f>
-        <v>98.099687468735823</v>
-      </c>
-      <c r="U98" s="1">
-        <f>O98-R98*2</f>
-        <v>72.323142615452127</v>
-      </c>
-      <c r="V98" s="1">
-        <f>O98-2*S98</f>
-        <v>1.9003125312641771</v>
-      </c>
-      <c r="W98" s="1">
+        <v>0.56970969198367505</v>
+      </c>
+      <c r="X98" s="1">
+        <f t="shared" si="34"/>
+        <v>0.53235238060210444</v>
+      </c>
+      <c r="Y98" s="1">
+        <f t="shared" si="35"/>
+        <v>0.4302903080163249</v>
+      </c>
+    </row>
+    <row r="99" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D99" s="11"/>
+      <c r="F99" s="1">
+        <f t="shared" si="24"/>
+        <v>-7.2168783609972484</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="25"/>
+        <v>7.2168783687433926</v>
+      </c>
+      <c r="H99" s="1">
         <f t="shared" si="26"/>
-        <v>0.98099687468735819</v>
-      </c>
-      <c r="X98" s="1">
-        <f t="shared" si="27"/>
-        <v>0.7232314261545213</v>
-      </c>
-      <c r="Y98" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125312641769E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D99" s="14"/>
-      <c r="F99" s="1">
-        <f>SQRT(3)*N99*O99/P99</f>
-        <v>-49.79646069088102</v>
-      </c>
-      <c r="G99" s="1">
-        <f>SQRT(3)*O99/P99*(SQRT(3)/2*M99+0.5*N99)</f>
-        <v>49.796460744329416</v>
-      </c>
-      <c r="H99" s="1">
-        <f>SQRT(3)*O99/P99*(-SQRT(3)/2*M99+0.5*N99)</f>
-        <v>-99.592921435210442</v>
+        <v>-14.433756729740644</v>
       </c>
       <c r="J99" s="1">
         <f>G99</f>
-        <v>49.796460744329416</v>
+        <v>7.2168783687433926</v>
       </c>
       <c r="K99" s="1">
         <f>-F99</f>
-        <v>49.79646069088102</v>
+        <v>7.2168783609972484</v>
       </c>
       <c r="L99" s="1">
         <v>330</v>
       </c>
       <c r="M99" s="1">
-        <f>M53</f>
-        <v>11.95115057436319</v>
+        <f t="shared" si="36"/>
+        <v>1.7320508078787231</v>
       </c>
       <c r="N99" s="1">
-        <f>N53</f>
-        <v>-6.8999999962969865</v>
+        <f t="shared" si="36"/>
+        <v>-0.99999999946333129</v>
       </c>
       <c r="O99" s="1">
         <v>100</v>
@@ -5180,74 +5180,74 @@
         <v>24</v>
       </c>
       <c r="Q99" s="1">
-        <f>(O99-J99-K99)/4</f>
-        <v>0.10176964119739118</v>
+        <f t="shared" si="28"/>
+        <v>21.391560817564841</v>
       </c>
       <c r="R99" s="1">
+        <f t="shared" si="42"/>
+        <v>25.000000001936538</v>
+      </c>
+      <c r="S99" s="1">
+        <f t="shared" si="42"/>
+        <v>28.608439182435163</v>
+      </c>
+      <c r="T99" s="1">
+        <f t="shared" si="30"/>
+        <v>57.216878364870318</v>
+      </c>
+      <c r="U99" s="1">
+        <f t="shared" si="31"/>
+        <v>49.999999996126924</v>
+      </c>
+      <c r="V99" s="1">
+        <f t="shared" si="32"/>
+        <v>42.783121635129675</v>
+      </c>
+      <c r="W99" s="1">
         <f t="shared" si="33"/>
-        <v>25.000000013362097</v>
-      </c>
-      <c r="S99" s="1">
-        <f t="shared" si="33"/>
-        <v>49.898230358802607</v>
-      </c>
-      <c r="T99" s="1">
-        <f>O99-Q99*2</f>
-        <v>99.796460717605214</v>
-      </c>
-      <c r="U99" s="1">
-        <f>O99-R99*2</f>
-        <v>49.999999973275806</v>
-      </c>
-      <c r="V99" s="1">
-        <f>O99-2*S99</f>
-        <v>0.20353928239478591</v>
-      </c>
-      <c r="W99" s="1">
+        <v>0.57216878364870316</v>
+      </c>
+      <c r="X99" s="1">
+        <f t="shared" si="34"/>
+        <v>0.49999999996126926</v>
+      </c>
+      <c r="Y99" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42783121635129673</v>
+      </c>
+    </row>
+    <row r="100" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D100" s="11"/>
+      <c r="F100" s="1">
+        <f t="shared" si="24"/>
+        <v>-3.7357311295173399</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="25"/>
+        <v>10.206207264902675</v>
+      </c>
+      <c r="H100" s="1">
         <f t="shared" si="26"/>
-        <v>0.99796460717605218</v>
-      </c>
-      <c r="X99" s="1">
-        <f t="shared" si="27"/>
-        <v>0.49999999973275805</v>
-      </c>
-      <c r="Y99" s="1">
-        <f t="shared" si="28"/>
-        <v>2.0353928239478592E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D100" s="14"/>
-      <c r="F100" s="1">
-        <f>SQRT(3)*N100*O100/P100</f>
-        <v>-25.776544793669647</v>
-      </c>
-      <c r="G100" s="1">
-        <f>SQRT(3)*O100/P100*(SQRT(3)/2*M100+0.5*N100)</f>
-        <v>70.422830127828433</v>
-      </c>
-      <c r="H100" s="1">
-        <f>SQRT(3)*O100/P100*(-SQRT(3)/2*M100+0.5*N100)</f>
-        <v>-96.199374921498105</v>
+        <v>-13.941938394420015</v>
       </c>
       <c r="J100" s="1">
         <f>G100</f>
-        <v>70.422830127828433</v>
+        <v>10.206207264902675</v>
       </c>
       <c r="K100" s="1">
         <f>-F100</f>
-        <v>25.776544793669647</v>
+        <v>3.7357311295173399</v>
       </c>
       <c r="L100" s="1">
         <v>345</v>
       </c>
       <c r="M100" s="1">
-        <f>M54</f>
-        <v>13.329776403946125</v>
+        <f t="shared" si="36"/>
+        <v>1.9318516527458152</v>
       </c>
       <c r="N100" s="1">
-        <f>N54</f>
-        <v>-3.5717028180968686</v>
+        <f t="shared" si="36"/>
+        <v>-0.51763808957925628</v>
       </c>
       <c r="O100" s="1">
         <v>100</v>
@@ -5256,51 +5256,51 @@
         <v>24</v>
       </c>
       <c r="Q100" s="1">
-        <f>(O100-J100-K100)/4</f>
-        <v>0.95015626962547994</v>
+        <f t="shared" si="28"/>
+        <v>21.514515401394998</v>
       </c>
       <c r="R100" s="1">
+        <f t="shared" si="42"/>
+        <v>26.617619033846335</v>
+      </c>
+      <c r="S100" s="1">
+        <f t="shared" si="42"/>
+        <v>28.485484598605005</v>
+      </c>
+      <c r="T100" s="1">
+        <f t="shared" si="30"/>
+        <v>56.970969197210003</v>
+      </c>
+      <c r="U100" s="1">
+        <f t="shared" si="31"/>
+        <v>46.76476193230733</v>
+      </c>
+      <c r="V100" s="1">
+        <f t="shared" si="32"/>
+        <v>43.02903080278999</v>
+      </c>
+      <c r="W100" s="1">
         <f t="shared" si="33"/>
-        <v>36.161571333539698</v>
-      </c>
-      <c r="S100" s="1">
-        <f t="shared" si="33"/>
-        <v>49.049843730374519</v>
-      </c>
-      <c r="T100" s="1">
-        <f>O100-Q100*2</f>
-        <v>98.099687460749038</v>
-      </c>
-      <c r="U100" s="1">
-        <f>O100-R100*2</f>
-        <v>27.676857332920605</v>
-      </c>
-      <c r="V100" s="1">
-        <f>O100-2*S100</f>
-        <v>1.9003125392509617</v>
-      </c>
-      <c r="W100" s="1">
-        <f t="shared" si="26"/>
-        <v>0.98099687460749041</v>
+        <v>0.56970969197210009</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="27"/>
-        <v>0.27676857332920607</v>
+        <f t="shared" si="34"/>
+        <v>0.4676476193230733</v>
       </c>
       <c r="Y100" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9003125392509618E-2</v>
+        <f t="shared" si="35"/>
+        <v>0.43029030802789991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="F1:F26"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="G9:N10"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="G25:N26"/>
     <mergeCell ref="O1:O26"/>
-    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEFFAA-D2CB-4BE4-8DEF-466BF445E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44400BF6-6C0E-4332-AADF-92201783993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="TIM" sheetId="2" r:id="rId3"/>
+    <sheet name="Q15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -295,8 +296,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -385,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -405,15 +407,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1860,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
@@ -1883,39 +1887,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="15" t="s">
         <v>8</v>
       </c>
@@ -1926,10 +1930,10 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="13"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1938,10 +1942,10 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1966,10 +1970,10 @@
       <c r="N11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F12" s="13"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="1">
         <f>I12*M12 - J12*N12</f>
         <v>0</v>
@@ -1999,10 +2003,10 @@
         <f>SIN(L12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="1">
         <f>I13*M13 - J13*N13</f>
         <v>-0.50000000002439404</v>
@@ -2032,13 +2036,13 @@
         <f t="shared" ref="N13" si="2">SIN(L13)</f>
         <v>0.50000000002439404</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G16" si="3">I14*M14 - J14*N14</f>
         <v>-0.86602540381260651</v>
@@ -2068,10 +2072,10 @@
         <f t="shared" ref="N14:N17" si="5">SIN(L14)</f>
         <v>0.86602540381260651</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
@@ -2101,10 +2105,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O15" s="13"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>-0.86602540372810288</v>
@@ -2134,10 +2138,10 @@
         <f t="shared" si="5"/>
         <v>0.86602540372810288</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="1">
         <f t="shared" ref="G17" si="6">I17*M17 - J17*N17</f>
         <v>-0.49999999987802951</v>
@@ -2167,10 +2171,10 @@
         <f t="shared" si="5"/>
         <v>0.49999999987802951</v>
       </c>
-      <c r="O17" s="13"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1">
         <f t="shared" ref="G18:G24" si="8">I18*M18 - J18*N18</f>
         <v>1.6900690807779284E-10</v>
@@ -2200,10 +2204,10 @@
         <f t="shared" ref="N18:N24" si="12">SIN(L18)</f>
         <v>-1.6900690807779284E-10</v>
       </c>
-      <c r="O18" s="13"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F19" s="13"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1">
         <f t="shared" si="8"/>
         <v>0.50000000017075841</v>
@@ -2233,10 +2237,10 @@
         <f t="shared" si="12"/>
         <v>-0.50000000017075841</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540389711002</v>
@@ -2266,10 +2270,10 @@
         <f t="shared" si="12"/>
         <v>-0.86602540389711002</v>
       </c>
-      <c r="O20" s="13"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -2299,10 +2303,10 @@
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="13"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540364359926</v>
@@ -2332,10 +2336,10 @@
         <f t="shared" si="12"/>
         <v>-0.86602540364359926</v>
       </c>
-      <c r="O22" s="13"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1">
         <f t="shared" si="8"/>
         <v>0.49999999973166565</v>
@@ -2365,10 +2369,10 @@
         <f t="shared" si="12"/>
         <v>-0.49999999973166565</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="1">
         <f t="shared" si="8"/>
         <v>-3.3801381615558568E-10</v>
@@ -2398,36 +2402,36 @@
         <f t="shared" si="12"/>
         <v>3.3801381615558568E-10</v>
       </c>
-      <c r="O24" s="13"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G28" s="1" t="s">
@@ -2438,10 +2442,10 @@
       <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="14"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G30" s="1" t="s">
@@ -5313,7 +5317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FFA77-02F6-4A93-B8ED-526981006EA2}">
   <dimension ref="C4:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -5963,4 +5967,68 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
+  <dimension ref="D4:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="E4" s="16">
+        <v>32768</v>
+      </c>
+      <c r="F4" s="17">
+        <f>D4*E4</f>
+        <v>56755.840862416968</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>32768</v>
+      </c>
+      <c r="F5" s="17">
+        <f>D5*E5</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f>D5/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>32768</v>
+      </c>
+      <c r="F6" s="17">
+        <f>D6*E6</f>
+        <v>1365.3333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="16">
+        <v>32768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44400BF6-6C0E-4332-AADF-92201783993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705010B2-E364-4F65-AD68-1C5751891BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -407,6 +416,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,8 +427,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1868,84 +1877,84 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.58203125" style="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
+    <row r="1" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F9" s="16"/>
+      <c r="G9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F11" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F11" s="16"/>
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1970,10 +1979,10 @@
       <c r="N11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F12" s="14"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F12" s="16"/>
       <c r="G12" s="1">
         <f>I12*M12 - J12*N12</f>
         <v>0</v>
@@ -2003,10 +2012,10 @@
         <f>SIN(L12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F13" s="14"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F13" s="16"/>
       <c r="G13" s="1">
         <f>I13*M13 - J13*N13</f>
         <v>-0.50000000002439404</v>
@@ -2036,13 +2045,13 @@
         <f t="shared" ref="N13" si="2">SIN(L13)</f>
         <v>0.50000000002439404</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F14" s="14"/>
+      <c r="O13" s="16"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F14" s="16"/>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G16" si="3">I14*M14 - J14*N14</f>
         <v>-0.86602540381260651</v>
@@ -2072,10 +2081,10 @@
         <f t="shared" ref="N14:N17" si="5">SIN(L14)</f>
         <v>0.86602540381260651</v>
       </c>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F15" s="14"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F15" s="16"/>
       <c r="G15" s="1">
         <f t="shared" si="3"/>
         <v>-1</v>
@@ -2105,10 +2114,10 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F16" s="14"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
       <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>-0.86602540372810288</v>
@@ -2138,10 +2147,10 @@
         <f t="shared" si="5"/>
         <v>0.86602540372810288</v>
       </c>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F17" s="14"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F17" s="16"/>
       <c r="G17" s="1">
         <f t="shared" ref="G17" si="6">I17*M17 - J17*N17</f>
         <v>-0.49999999987802951</v>
@@ -2171,10 +2180,10 @@
         <f t="shared" si="5"/>
         <v>0.49999999987802951</v>
       </c>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F18" s="14"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
       <c r="G18" s="1">
         <f t="shared" ref="G18:G24" si="8">I18*M18 - J18*N18</f>
         <v>1.6900690807779284E-10</v>
@@ -2204,10 +2213,10 @@
         <f t="shared" ref="N18:N24" si="12">SIN(L18)</f>
         <v>-1.6900690807779284E-10</v>
       </c>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F19" s="14"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
       <c r="G19" s="1">
         <f t="shared" si="8"/>
         <v>0.50000000017075841</v>
@@ -2237,10 +2246,10 @@
         <f t="shared" si="12"/>
         <v>-0.50000000017075841</v>
       </c>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F20" s="14"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
       <c r="G20" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540389711002</v>
@@ -2270,10 +2279,10 @@
         <f t="shared" si="12"/>
         <v>-0.86602540389711002</v>
       </c>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F21" s="14"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
       <c r="G21" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -2303,10 +2312,10 @@
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F22" s="14"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
         <v>0.86602540364359926</v>
@@ -2336,10 +2345,10 @@
         <f t="shared" si="12"/>
         <v>-0.86602540364359926</v>
       </c>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F23" s="14"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
       <c r="G23" s="1">
         <f t="shared" si="8"/>
         <v>0.49999999973166565</v>
@@ -2369,10 +2378,10 @@
         <f t="shared" si="12"/>
         <v>-0.49999999973166565</v>
       </c>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F24" s="14"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
       <c r="G24" s="1">
         <f t="shared" si="8"/>
         <v>-3.3801381615558568E-10</v>
@@ -2402,52 +2411,52 @@
         <f t="shared" si="12"/>
         <v>3.3801381615558568E-10</v>
       </c>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
       <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
       <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
       <c r="G31" s="1">
         <v>24</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
       <c r="G32" s="1">
         <v>24</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>0.5176380902322496</v>
       </c>
     </row>
-    <row r="33" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="1">
         <v>24</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>1.0000000000487881</v>
       </c>
     </row>
-    <row r="34" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="1">
         <v>24</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>1.414213562432848</v>
       </c>
     </row>
-    <row r="35" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="1"/>
       <c r="G35" s="6">
         <v>24</v>
@@ -2629,7 +2638,7 @@
         <v>1.732050807625213</v>
       </c>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G36" s="1">
         <v>24</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>1.9318516526145886</v>
       </c>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G37" s="1">
         <v>24</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G38" s="1">
         <v>24</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>1.9318516525271039</v>
       </c>
     </row>
-    <row r="39" spans="6:14" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:14" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="1"/>
       <c r="G39" s="6">
         <v>24</v>
@@ -2754,7 +2763,7 @@
         <v>1.7320508074562058</v>
       </c>
     </row>
-    <row r="40" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="1">
         <v>24</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>1.4142135621938359</v>
       </c>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G41" s="1">
         <v>24</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>0.99999999975605902</v>
       </c>
     </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G42" s="1">
         <v>24</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>0.51763808990575344</v>
       </c>
     </row>
-    <row r="43" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="1"/>
       <c r="G43" s="6">
         <v>24</v>
@@ -2879,7 +2888,7 @@
         <v>-3.3801381615558568E-10</v>
       </c>
     </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G44" s="1">
         <v>24</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>-0.51763809055874599</v>
       </c>
     </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G45" s="1">
         <v>24</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>-1.0000000003415168</v>
       </c>
     </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G46" s="1">
         <v>24</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>-1.4142135626718602</v>
       </c>
     </row>
-    <row r="47" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F47" s="1"/>
       <c r="G47" s="1">
         <v>24</v>
@@ -3004,7 +3013,7 @@
         <v>-1.73205080779422</v>
       </c>
     </row>
-    <row r="48" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>24</v>
@@ -3036,7 +3045,7 @@
         <v>-1.9318516527020728</v>
       </c>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G49" s="1">
         <v>24</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G50" s="1">
         <v>24</v>
       </c>
@@ -3098,7 +3107,7 @@
         <v>-1.9318516524396196</v>
       </c>
     </row>
-    <row r="51" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>24</v>
@@ -3130,7 +3139,7 @@
         <v>-1.7320508072871985</v>
       </c>
     </row>
-    <row r="52" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>24</v>
@@ -3162,7 +3171,7 @@
         <v>-1.414213561954824</v>
       </c>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G53" s="1">
         <v>24</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>-0.99999999946333129</v>
       </c>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G54" s="1">
         <v>24</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>-0.51763808957925628</v>
       </c>
     </row>
-    <row r="55" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>24</v>
@@ -3256,7 +3265,7 @@
         <v>6.7602763231117136E-10</v>
       </c>
     </row>
-    <row r="71" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:25" x14ac:dyDescent="0.3">
       <c r="F71" s="12" t="s">
         <v>46</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:25" x14ac:dyDescent="0.3">
       <c r="F72" s="12" t="s">
         <v>47</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:25" x14ac:dyDescent="0.3">
       <c r="F73" s="1" t="s">
         <v>48</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:25" x14ac:dyDescent="0.3">
       <c r="F74" s="1" t="s">
         <v>49</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:25" x14ac:dyDescent="0.3">
       <c r="M75" s="1" t="s">
         <v>30</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:25" x14ac:dyDescent="0.3">
       <c r="F76" s="1" t="s">
         <v>43</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D77" s="11"/>
       <c r="F77" s="1">
         <f t="shared" ref="F77:F100" si="24">SQRT(3)*N77*O77/P77</f>
@@ -3503,7 +3512,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D78" s="11"/>
       <c r="F78" s="1">
         <f t="shared" si="24"/>
@@ -3582,7 +3591,7 @@
         <v>0.43029030802158624</v>
       </c>
     </row>
-    <row r="79" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D79" s="11"/>
       <c r="F79" s="1">
         <f t="shared" si="24"/>
@@ -3661,7 +3670,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="80" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D80" s="11"/>
       <c r="F80" s="1">
         <f t="shared" si="24"/>
@@ -3740,7 +3749,7 @@
         <v>0.43029030802263862</v>
       </c>
     </row>
-    <row r="81" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D81" s="11"/>
       <c r="F81" s="1">
         <f t="shared" si="24"/>
@@ -3819,7 +3828,7 @@
         <v>0.43749999999796713</v>
       </c>
     </row>
-    <row r="82" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D82" s="11"/>
       <c r="F82" s="1">
         <f t="shared" si="24"/>
@@ -3898,7 +3907,7 @@
         <v>0.43029030802053397</v>
       </c>
     </row>
-    <row r="83" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D83" s="11"/>
       <c r="F83" s="1">
         <f t="shared" si="24"/>
@@ -3977,7 +3986,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="84" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D84" s="11"/>
       <c r="F84" s="1">
         <f t="shared" si="24"/>
@@ -4056,7 +4065,7 @@
         <v>0.43029030802369078</v>
       </c>
     </row>
-    <row r="85" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D85" s="11"/>
       <c r="F85" s="1">
         <f t="shared" si="24"/>
@@ -4135,7 +4144,7 @@
         <v>0.43749999999593442</v>
       </c>
     </row>
-    <row r="86" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D86" s="11"/>
       <c r="F86" s="1">
         <f t="shared" si="24"/>
@@ -4214,7 +4223,7 @@
         <v>0.43029030801948182</v>
       </c>
     </row>
-    <row r="87" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D87" s="11"/>
       <c r="F87" s="1">
         <f t="shared" si="24"/>
@@ -4293,7 +4302,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="88" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D88" s="11"/>
       <c r="F88" s="1">
         <f t="shared" si="24"/>
@@ -4372,7 +4381,7 @@
         <v>0.43029030802474311</v>
       </c>
     </row>
-    <row r="89" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D89" s="11"/>
       <c r="F89" s="1">
         <f t="shared" si="24"/>
@@ -4451,7 +4460,7 @@
         <v>0.43749999999390149</v>
       </c>
     </row>
-    <row r="90" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D90" s="11"/>
       <c r="F90" s="1">
         <f t="shared" si="24"/>
@@ -4527,7 +4536,7 @@
         <v>0.43029030801842943</v>
       </c>
     </row>
-    <row r="91" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D91" s="11"/>
       <c r="F91" s="1">
         <f t="shared" si="24"/>
@@ -4603,7 +4612,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="92" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D92" s="11"/>
       <c r="F92" s="1">
         <f t="shared" si="24"/>
@@ -4679,7 +4688,7 @@
         <v>0.43029030802579543</v>
       </c>
     </row>
-    <row r="93" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
       <c r="F93" s="1">
         <f t="shared" si="24"/>
@@ -4758,7 +4767,7 @@
         <v>0.43749999999186862</v>
       </c>
     </row>
-    <row r="94" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D94" s="11"/>
       <c r="F94" s="1">
         <f t="shared" si="24"/>
@@ -4837,7 +4846,7 @@
         <v>0.43029030801737717</v>
       </c>
     </row>
-    <row r="95" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D95" s="11"/>
       <c r="F95" s="1">
         <f t="shared" si="24"/>
@@ -4913,7 +4922,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="96" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D96" s="11"/>
       <c r="F96" s="1">
         <f t="shared" si="24"/>
@@ -4989,7 +4998,7 @@
         <v>0.43029030802684759</v>
       </c>
     </row>
-    <row r="97" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D97" s="11"/>
       <c r="F97" s="1">
         <f t="shared" si="24"/>
@@ -5068,7 +5077,7 @@
         <v>0.43749999998983574</v>
       </c>
     </row>
-    <row r="98" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D98" s="11"/>
       <c r="F98" s="1">
         <f t="shared" si="24"/>
@@ -5144,7 +5153,7 @@
         <v>0.4302903080163249</v>
       </c>
     </row>
-    <row r="99" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
       <c r="F99" s="1">
         <f t="shared" si="24"/>
@@ -5220,7 +5229,7 @@
         <v>0.42783121635129673</v>
       </c>
     </row>
-    <row r="100" spans="4:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D100" s="11"/>
       <c r="F100" s="1">
         <f t="shared" si="24"/>
@@ -5321,12 +5330,12 @@
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>0</v>
       </c>
@@ -5372,7 +5381,7 @@
         <v>-0.49999996905991789</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>15</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>0.94300973388904552</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>30</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>-0.9327862240275242</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>45</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>0.47424310546081916</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>60</v>
       </c>
@@ -5456,7 +5465,7 @@
         <v>0.2122327140770944</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>75</v>
       </c>
@@ -5477,7 +5486,7 @@
         <v>-0.79670436065600081</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>90</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>0.99826063174746327</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>105</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>-0.72002871098671672</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>120</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>9.5733585548389261E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>135</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>0.57457341539522222</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>150</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>-0.96872654299991112</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>165</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>0.89728627576986497</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>180</v>
       </c>
@@ -5624,7 +5633,7 @@
         <v>-0.39458853315303588</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>195</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>-0.29775799739175773</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>210</v>
       </c>
@@ -5666,7 +5675,7 @@
         <v>0.8469948363041695</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>225</v>
       </c>
@@ -5687,7 +5696,7 @@
         <v>-0.98914548139646918</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>240</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>0.65588889624746605</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>255</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>-7.3962519185576166E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>270</v>
       </c>
@@ -5750,7 +5759,7 @@
         <v>-0.64465120988149183</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>285</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>0.98686371623212654</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>300</v>
       </c>
@@ -5792,7 +5801,7 @@
         <v>-0.85476566383947672</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>315</v>
       </c>
@@ -5813,7 +5822,7 @@
         <v>0.3118465700590673</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>330</v>
       </c>
@@ -5834,7 +5843,7 @@
         <v>0.38095352395876669</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>345</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>-0.89065814508396413</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>360</v>
       </c>
@@ -5885,22 +5894,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCB8A7-4547-44DB-A749-90D7D73AE301}">
-  <dimension ref="B3:G5"/>
+  <dimension ref="B3:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <f xml:space="preserve"> 1/C4/1000</f>
         <v>10</v>
@@ -5942,8 +5951,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
+        <f t="shared" ref="B5:B6" si="0" xml:space="preserve"> 1/C5/1000</f>
         <v>10</v>
       </c>
       <c r="C5">
@@ -5960,6 +5970,28 @@
         <v>8500</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>(G6*E6*F6)/D6</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D6">
+        <v>275000000</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>13750</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
@@ -5973,56 +6005,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
   <dimension ref="D4:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>SQRT(3)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>32768</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <f>D4*E4</f>
         <v>56755.840862416968</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>32768</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <f>D5*E5</f>
         <v>32768</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>D5/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>32768</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <f>D6*E6</f>
         <v>1365.3333333333333</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="16">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="13">
         <v>32768</v>
       </c>
     </row>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E074F-E416-4A25-822C-B2862BEB4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C070783-A465-4836-845B-607F78E0F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="电流及功率相关计算" sheetId="3" r:id="rId2"/>
-    <sheet name="TIM" sheetId="2" r:id="rId3"/>
-    <sheet name="Q15" sheetId="4" r:id="rId4"/>
+    <sheet name="角度计算" sheetId="6" r:id="rId2"/>
+    <sheet name="电流及功率相关计算" sheetId="3" r:id="rId3"/>
+    <sheet name="TIM" sheetId="2" r:id="rId4"/>
+    <sheet name="Q15" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +328,14 @@
   </si>
   <si>
     <t>输出电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自给角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3440,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1964D3-99F1-485C-A41B-012A8178766E}">
   <dimension ref="D1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D54" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
@@ -6408,6 +6417,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
+  <dimension ref="C4:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>2.62317</v>
+      </c>
+      <c r="F4">
+        <v>3.1640600000000001</v>
+      </c>
+      <c r="G4">
+        <v>3.2633100000000002</v>
+      </c>
+      <c r="H4">
+        <v>3.4460999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>0.31415900000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.628</v>
+      </c>
+      <c r="G6">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="H6">
+        <v>1.25664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FFA77-02F6-4A93-B8ED-526981006EA2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6425,7 +6484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCB8A7-4547-44DB-A749-90D7D73AE301}">
   <dimension ref="B3:G6"/>
   <sheetViews>
@@ -6534,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
   <dimension ref="A1:N24"/>
   <sheetViews>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C070783-A465-4836-845B-607F78E0F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA925FD-DC5A-415E-B338-BAEEF8BA082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,14 +328,6 @@
   </si>
   <si>
     <t>输出电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自给角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6418,46 +6410,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
-  <dimension ref="C4:H6"/>
+  <dimension ref="F3:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>2.62317</v>
-      </c>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F4">
-        <v>3.1640600000000001</v>
-      </c>
-      <c r="G4">
-        <v>3.2633100000000002</v>
-      </c>
-      <c r="H4">
-        <v>3.4460999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6">
-        <v>0.31415900000000002</v>
-      </c>
-      <c r="F6">
+        <v>0.314</v>
+      </c>
+      <c r="J4">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F5">
         <v>0.628</v>
       </c>
-      <c r="G6">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="H6">
-        <v>1.25664</v>
+      <c r="J5">
+        <v>0.628</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FFA77-02F6-4A93-B8ED-526981006EA2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA925FD-DC5A-415E-B338-BAEEF8BA082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9406AC64-B279-48EE-ABDF-E4868B7BC33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Q15" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +329,74 @@
   </si>
   <si>
     <t>输出电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压转电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC参考电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC量程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_2r_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧度制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -452,6 +521,9 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3441,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1964D3-99F1-485C-A41B-012A8178766E}">
   <dimension ref="D1:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="D54" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
@@ -6410,23 +6482,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
-  <dimension ref="F3:J5"/>
+  <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>0.314</v>
       </c>
@@ -6434,12 +6506,60 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>0.628</v>
       </c>
       <c r="J5">
         <v>0.628</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>D11*(3.1415926/180)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>B11*COS(E11)-C11*SIN(E11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>B11*SIN(E11)+C11*COS(E11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6450,19 +6570,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FFA77-02F6-4A93-B8ED-526981006EA2}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.9140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>3.3</v>
+      </c>
+      <c r="F8">
+        <v>4096</v>
+      </c>
+      <c r="G8">
+        <f>D8/F8*3.3</f>
+        <v>2.4169921875E-2</v>
+      </c>
+      <c r="H8">
+        <v>5.7</v>
+      </c>
+      <c r="I8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8">
+        <f>G8/H8/(I8+J8)</f>
+        <v>7.0088217703349279E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17">
+        <f>E8/F8/H8/(I8+J8)</f>
+        <v>2.3362739234449758E-4</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9">
+        <f>D9*E9</f>
+        <v>7.0088217703349271E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:J9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6527,7 +6733,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
-        <f t="shared" ref="B5:B6" si="0" xml:space="preserve"> 1/C5/1000</f>
+        <f xml:space="preserve"> 1/C5/1000</f>
         <v>10</v>
       </c>
       <c r="C5">
@@ -6549,7 +6755,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 1/C6/1000</f>
         <v>10</v>
       </c>
       <c r="C6">

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9406AC64-B279-48EE-ABDF-E4868B7BC33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8138A0-C4C5-43F1-AB4B-61F667486A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4040" yWindow="330" windowWidth="14400" windowHeight="7280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Q15" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +396,22 @@
   </si>
   <si>
     <t>弧度制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度Q15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧度Q15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1971,6 +1986,363 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q15'!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q15'!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B540-4FD2-8214-B683ED230F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40531951"/>
+        <c:axId val="208396143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="40531951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208396143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208396143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40531951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2051,6 +2423,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2568,6 +2980,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3240,6 +4168,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545987</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>741023</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46ED571-4F08-6E07-6C2A-F5CB9FEF4059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6484,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
   <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6783,10 +7752,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6798,6 +7767,7 @@
     <col min="5" max="5" width="23.58203125" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="15" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -6828,10 +7798,10 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="J2" t="s">
+      <c r="J2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="L2" t="s">
@@ -6855,10 +7825,10 @@
         <f>E3*B2</f>
         <v>32.768000000000001</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>0.2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <f>40/1000</f>
         <v>0.04</v>
       </c>
@@ -7043,24 +8013,183 @@
         <v>4631.5789473684199</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>-15</v>
+      </c>
+      <c r="C22">
+        <v>3451</v>
+      </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>-10</v>
+      </c>
+      <c r="C23">
+        <v>3315</v>
+      </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="11"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>586</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>519</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>3.1415926/180*H25</f>
+        <v>1.7453292222222222E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <f>H25*32768</f>
+        <v>32768</v>
+      </c>
+      <c r="K25" s="11">
+        <f>I25*32768</f>
+        <v>571.90947953777777</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>360</v>
+      </c>
+      <c r="I26">
+        <f>3.1415926/180*H26</f>
+        <v>6.2831852000000001</v>
+      </c>
+      <c r="J26" s="11">
+        <f>H26*32768</f>
+        <v>11796480</v>
+      </c>
+      <c r="K26" s="11">
+        <f>I26*32768</f>
+        <v>205887.4126336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <f>I27*32768</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>-15</v>
+      </c>
+      <c r="C29">
+        <f>-29.769*B29+3009.6</f>
+        <v>3456.1349999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>-10</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C36" si="0">-29.769*B30+3009.6</f>
+        <v>3307.29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>628.07999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>479.23500000000013</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>-30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3902.67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>-25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3753.8249999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1818.84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1967.6849999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8138A0-C4C5-43F1-AB4B-61F667486A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938F746-C5CD-48C1-A1A9-1BCC6F131DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4040" yWindow="330" windowWidth="14400" windowHeight="7280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -7754,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8152,20 +8152,20 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>3902.67</v>
+        <v>2116.5299999999997</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>3753.8249999999998</v>
+        <v>2265.375</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938F746-C5CD-48C1-A1A9-1BCC6F131DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837C6A9-4735-4AE9-8F14-0BCF7BDE9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="角度计算" sheetId="6" r:id="rId2"/>
-    <sheet name="电流及功率相关计算" sheetId="3" r:id="rId3"/>
-    <sheet name="TIM" sheetId="2" r:id="rId4"/>
-    <sheet name="Q15" sheetId="4" r:id="rId5"/>
+    <sheet name="定点数相关" sheetId="7" r:id="rId2"/>
+    <sheet name="角度计算" sheetId="6" r:id="rId3"/>
+    <sheet name="电流及功率相关计算" sheetId="3" r:id="rId4"/>
+    <sheet name="TIM" sheetId="2" r:id="rId5"/>
+    <sheet name="Q15" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7450,11 +7451,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C631B-0375-4040-BCC5-A89977E4753B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7537,7 +7554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FFA77-02F6-4A93-B8ED-526981006EA2}">
   <dimension ref="C5:K9"/>
   <sheetViews>
@@ -7641,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCB8A7-4547-44DB-A749-90D7D73AE301}">
   <dimension ref="B3:G6"/>
   <sheetViews>
@@ -7750,12 +7767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837C6A9-4735-4AE9-8F14-0BCF7BDE9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ED1A9A-28D1-4DA7-B581-93040B873786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1995" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -7454,7 +7454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C631B-0375-4040-BCC5-A89977E4753B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D27"/>
     </sheetView>
   </sheetViews>
@@ -7468,10 +7468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
-  <dimension ref="B3:J11"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7546,6 +7546,60 @@
       <c r="G11">
         <f>B11*SIN(E11)+C11*COS(E11)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E17" si="0">D12*(3.1415926/180)</f>
+        <v>0.5235987666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.5707963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.6179938333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>210</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.6651913666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>270</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.7123888999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>330</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.7595864333333333</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ED1A9A-28D1-4DA7-B581-93040B873786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7054C911-150C-41E8-9C1C-4EA9B41BF64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1995" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -7470,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7714,10 +7714,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCB8A7-4547-44DB-A749-90D7D73AE301}">
-  <dimension ref="B3:G6"/>
+  <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7813,6 +7813,28 @@
       </c>
       <c r="G6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f xml:space="preserve"> 1/C7/1000</f>
+        <v>21.25</v>
+      </c>
+      <c r="C7">
+        <f>(G7*E7*F7)/D7</f>
+        <v>4.7058823529411767E-5</v>
+      </c>
+      <c r="D7">
+        <v>170000000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>8000</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57308\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7054C911-150C-41E8-9C1C-4EA9B41BF64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB94209-8ADC-4680-9353-5AE6F525AE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Q15" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +414,10 @@
   </si>
   <si>
     <t>温度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARK变换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4483,30 +4488,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1964D3-99F1-485C-A41B-012A8178766E}">
   <dimension ref="D1:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.58203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4514,12 +4519,12 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4528,7 +4533,7 @@
       </c>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G5" s="1">
         <v>24</v>
       </c>
@@ -4585,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G6" s="1">
         <v>24</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>2.5881904511612482E-2</v>
       </c>
     </row>
-    <row r="7" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" s="1">
         <v>24</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>5.0000000002439406E-2</v>
       </c>
     </row>
-    <row r="8" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="1">
         <v>24</v>
       </c>
@@ -4678,7 +4683,7 @@
         <v>7.0710678121642404E-2</v>
       </c>
     </row>
-    <row r="9" spans="6:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
       <c r="G9" s="5">
         <v>24</v>
@@ -4710,7 +4715,7 @@
         <v>8.6602540381260654E-2</v>
       </c>
     </row>
-    <row r="10" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G10" s="1">
         <v>24</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>9.6592582630729437E-2</v>
       </c>
     </row>
-    <row r="11" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G11" s="1">
         <v>24</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G12" s="1">
         <v>24</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>9.65925826263552E-2</v>
       </c>
     </row>
-    <row r="13" spans="6:19" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:19" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
       <c r="G13" s="5">
         <v>24</v>
@@ -4835,7 +4840,7 @@
         <v>8.6602540372810288E-2</v>
       </c>
     </row>
-    <row r="14" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="1">
         <v>24</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>7.0710678109691796E-2</v>
       </c>
     </row>
-    <row r="15" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G15" s="1">
         <v>24</v>
       </c>
@@ -4897,7 +4902,7 @@
         <v>4.9999999987802954E-2</v>
       </c>
     </row>
-    <row r="16" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:19" x14ac:dyDescent="0.2">
       <c r="G16" s="1">
         <v>24</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>2.5881904495287673E-2</v>
       </c>
     </row>
-    <row r="17" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
       <c r="G17" s="5">
         <v>24</v>
@@ -4960,7 +4965,7 @@
         <v>-1.6900690807779284E-11</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G18" s="1">
         <v>24</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>-2.5881904527937302E-2</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G19" s="1">
         <v>24</v>
       </c>
@@ -5022,7 +5027,7 @@
         <v>-5.0000000017075844E-2</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G20" s="1">
         <v>24</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>-7.0710678133593011E-2</v>
       </c>
     </row>
-    <row r="21" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>24</v>
@@ -5085,7 +5090,7 @@
         <v>-8.6602540389711005E-2</v>
       </c>
     </row>
-    <row r="22" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>24</v>
@@ -5117,7 +5122,7 @@
         <v>-9.6592582635103647E-2</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G23" s="1">
         <v>24</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G24" s="1">
         <v>24</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>-9.6592582621980991E-2</v>
       </c>
     </row>
-    <row r="25" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>24</v>
@@ -5211,7 +5216,7 @@
         <v>-8.6602540364359937E-2</v>
       </c>
     </row>
-    <row r="26" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>24</v>
@@ -5243,7 +5248,7 @@
         <v>-7.0710678097741203E-2</v>
       </c>
     </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G27" s="1">
         <v>24</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>-4.9999999973166565E-2</v>
       </c>
     </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G28" s="1">
         <v>24</v>
       </c>
@@ -5305,7 +5310,7 @@
         <v>-2.5881904478962815E-2</v>
       </c>
     </row>
-    <row r="29" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>24</v>
@@ -5337,12 +5342,12 @@
         <v>3.3801381615558568E-11</v>
       </c>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
       <c r="M36" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D38" s="9"/>
       <c r="F38" s="1">
         <f t="shared" ref="F38:F61" si="5">SQRT(3)*L38*M38/N38</f>
@@ -5406,7 +5411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D39" s="9"/>
       <c r="F39" s="1">
         <f t="shared" si="5"/>
@@ -5441,7 +5446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D40" s="9"/>
       <c r="F40" s="1">
         <f t="shared" si="5"/>
@@ -5476,7 +5481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D41" s="9"/>
       <c r="F41" s="1">
         <f t="shared" si="5"/>
@@ -5511,7 +5516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D42" s="9"/>
       <c r="F42" s="1">
         <f t="shared" si="5"/>
@@ -5546,7 +5551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D43" s="9"/>
       <c r="F43" s="1">
         <f t="shared" si="5"/>
@@ -5581,7 +5586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D44" s="9"/>
       <c r="F44" s="1">
         <f t="shared" si="5"/>
@@ -5616,7 +5621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D45" s="9"/>
       <c r="F45" s="1">
         <f t="shared" si="5"/>
@@ -5651,7 +5656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D46" s="9"/>
       <c r="F46" s="1">
         <f t="shared" si="5"/>
@@ -5686,7 +5691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D47" s="9"/>
       <c r="F47" s="1">
         <f t="shared" si="5"/>
@@ -5721,7 +5726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D48" s="9"/>
       <c r="F48" s="1">
         <f t="shared" si="5"/>
@@ -5756,7 +5761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D49" s="9"/>
       <c r="F49" s="1">
         <f t="shared" si="5"/>
@@ -5791,7 +5796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D50" s="9"/>
       <c r="F50" s="1">
         <f t="shared" si="5"/>
@@ -5826,7 +5831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D51" s="9"/>
       <c r="F51" s="1">
         <f t="shared" si="5"/>
@@ -5861,7 +5866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D52" s="9"/>
       <c r="F52" s="1">
         <f t="shared" si="5"/>
@@ -5896,7 +5901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D53" s="9"/>
       <c r="F53" s="1">
         <f t="shared" si="5"/>
@@ -5931,7 +5936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D54" s="9"/>
       <c r="F54" s="1">
         <f t="shared" si="5"/>
@@ -5966,7 +5971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
       <c r="F55" s="1">
         <f t="shared" si="5"/>
@@ -6001,7 +6006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D56" s="9"/>
       <c r="F56" s="1">
         <f t="shared" si="5"/>
@@ -6033,7 +6038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D57" s="9"/>
       <c r="F57" s="1">
         <f t="shared" si="5"/>
@@ -6065,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D58" s="9"/>
       <c r="F58" s="1">
         <f t="shared" si="5"/>
@@ -6100,7 +6105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D59" s="9"/>
       <c r="F59" s="1">
         <f t="shared" si="5"/>
@@ -6132,7 +6137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D60" s="9"/>
       <c r="F60" s="1">
         <f t="shared" si="5"/>
@@ -6164,7 +6169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D61" s="9"/>
       <c r="F61" s="1">
         <f t="shared" si="5"/>
@@ -6196,7 +6201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F63" s="10" t="s">
         <v>37</v>
       </c>
@@ -6222,7 +6227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F64" s="10" t="s">
         <v>12</v>
       </c>
@@ -6248,7 +6253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F65" s="1" t="s">
         <v>13</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F67" s="1" t="s">
         <v>13</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:16" x14ac:dyDescent="0.2">
       <c r="K68" s="1" t="s">
         <v>30</v>
       </c>
@@ -6334,7 +6339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F69" s="1">
         <f>-H38</f>
         <v>0.625</v>
@@ -6380,7 +6385,7 @@
         <v>0.49687500000000001</v>
       </c>
     </row>
-    <row r="70" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F70" s="1">
         <f>-H39</f>
         <v>0.51031036307264155</v>
@@ -6426,7 +6431,7 @@
         <v>0.49651451540107933</v>
       </c>
     </row>
-    <row r="71" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F71" s="1">
         <f>-H40</f>
         <v>0.36084391822591116</v>
@@ -6472,7 +6477,7 @@
         <v>0.49639156081756491</v>
       </c>
     </row>
-    <row r="72" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F72" s="1">
         <f>-H41</f>
         <v>0.18678655667222421</v>
@@ -6518,7 +6523,7 @@
         <v>0.49651451540113195</v>
       </c>
     </row>
-    <row r="73" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F73" s="1">
         <f>H42</f>
         <v>4.0656789445550703E-11</v>
@@ -6564,7 +6569,7 @@
         <v>0.49687499999989837</v>
       </c>
     </row>
-    <row r="74" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F74" s="1">
         <f>H43</f>
         <v>0.18678655675076722</v>
@@ -6610,7 +6615,7 @@
         <v>0.4965145154010267</v>
       </c>
     </row>
-    <row r="75" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F75" s="1">
         <f>H44</f>
         <v>0.36084391829633078</v>
@@ -6656,7 +6661,7 @@
         <v>0.49639156081756475</v>
       </c>
     </row>
-    <row r="76" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F76" s="1">
         <f>H45</f>
         <v>0.510310363130139</v>
@@ -6702,7 +6707,7 @@
         <v>0.49651451540118458</v>
       </c>
     </row>
-    <row r="77" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F77" s="1">
         <f>F46</f>
         <v>0.62499999995934308</v>
@@ -6748,7 +6753,7 @@
         <v>0.49687499999979673</v>
       </c>
     </row>
-    <row r="78" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F78" s="1">
         <f>F47</f>
         <v>0.5103103630151441</v>
@@ -6794,7 +6799,7 @@
         <v>0.49651451540097413</v>
       </c>
     </row>
-    <row r="79" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F79" s="1">
         <f>F48</f>
         <v>0.36084391815549149</v>
@@ -6840,7 +6845,7 @@
         <v>0.49639156081756491</v>
       </c>
     </row>
-    <row r="80" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F80" s="1">
         <f>F49</f>
         <v>0.18678655659368151</v>
@@ -6886,7 +6891,7 @@
         <v>0.49651451540123726</v>
       </c>
     </row>
-    <row r="81" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F81" s="1">
         <f>-F50</f>
         <v>1.2197022984202503E-10</v>
@@ -6932,7 +6937,7 @@
         <v>0.49687499999969509</v>
       </c>
     </row>
-    <row r="82" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F82" s="1">
         <f>-F51</f>
         <v>0.18678655682930992</v>
@@ -6978,7 +6983,7 @@
         <v>0.49651451540092145</v>
       </c>
     </row>
-    <row r="83" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F83" s="1">
         <f>-F52</f>
         <v>0.36084391836675039</v>
@@ -7024,7 +7029,7 @@
         <v>0.49639156081756491</v>
       </c>
     </row>
-    <row r="84" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F84" s="1">
         <f>-F53</f>
         <v>0.51031036318763634</v>
@@ -7070,7 +7075,7 @@
         <v>0.49651451540128982</v>
       </c>
     </row>
-    <row r="85" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F85" s="1">
         <f t="shared" ref="F85:G88" si="19">-G54</f>
         <v>0.62499999991868627</v>
@@ -7116,7 +7121,7 @@
         <v>0.49687499999959345</v>
       </c>
     </row>
-    <row r="86" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F86" s="1">
         <f t="shared" si="19"/>
         <v>0.51031036295764698</v>
@@ -7162,7 +7167,7 @@
         <v>0.49651451540086888</v>
       </c>
     </row>
-    <row r="87" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F87" s="1">
         <f t="shared" si="19"/>
         <v>0.36084391808507182</v>
@@ -7208,7 +7213,7 @@
         <v>0.49639156081756475</v>
       </c>
     </row>
-    <row r="88" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F88" s="1">
         <f t="shared" si="19"/>
         <v>0.1867865565151387</v>
@@ -7254,7 +7259,7 @@
         <v>0.49651451540134245</v>
       </c>
     </row>
-    <row r="89" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F89" s="1">
         <f>G58</f>
         <v>2.0328409745921338E-10</v>
@@ -7300,7 +7305,7 @@
         <v>0.49687499999949181</v>
       </c>
     </row>
-    <row r="90" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F90" s="1">
         <f>G59</f>
         <v>0.18678655690785279</v>
@@ -7346,7 +7351,7 @@
         <v>0.49651451540081626</v>
       </c>
     </row>
-    <row r="91" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F91" s="1">
         <f>G60</f>
         <v>0.36084391843716979</v>
@@ -7392,7 +7397,7 @@
         <v>0.49639156081756491</v>
       </c>
     </row>
-    <row r="92" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F92" s="1">
         <f>G61</f>
         <v>0.51031036324513368</v>
@@ -7458,7 +7463,7 @@
       <selection activeCell="D10" sqref="D10:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7468,23 +7473,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F4">
         <v>0.314</v>
       </c>
@@ -7492,7 +7498,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>0.628</v>
       </c>
@@ -7500,12 +7506,12 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -7524,8 +7530,11 @@
       <c r="G10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1</v>
       </c>
@@ -7547,8 +7556,26 @@
         <f>B11*SIN(E11)+C11*COS(E11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>30</v>
       </c>
@@ -7556,8 +7583,29 @@
         <f t="shared" ref="E12:E17" si="0">D12*(3.1415926/180)</f>
         <v>0.5235987666666666</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <f>M12*(3.1415926/180)</f>
+        <v>1.5707963</v>
+      </c>
+      <c r="O12">
+        <f>COS(N12)*K12+SIN(N12)*L12</f>
+        <v>2.6794896585053716E-8</v>
+      </c>
+      <c r="P12">
+        <f>-SIN(N12)*K12+COS(N12)*L12</f>
+        <v>-0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>90</v>
       </c>
@@ -7565,8 +7613,25 @@
         <f t="shared" si="0"/>
         <v>1.5707963</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <f>COS(N13)*K13+SIN(N13)*L13</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>-SIN(N13)*K13+COS(N13)*L13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>150</v>
       </c>
@@ -7575,7 +7640,7 @@
         <v>2.6179938333333332</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>210</v>
       </c>
@@ -7584,7 +7649,7 @@
         <v>3.6651913666666665</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>270</v>
       </c>
@@ -7593,7 +7658,7 @@
         <v>4.7123888999999997</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>330</v>
       </c>
@@ -7616,18 +7681,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.9140625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>76</v>
       </c>
@@ -7653,7 +7718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -7684,7 +7749,7 @@
         <v>7.0088217703349279E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>30</v>
       </c>
@@ -7716,20 +7781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCB8A7-4547-44DB-A749-90D7D73AE301}">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -7749,7 +7814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <f xml:space="preserve"> 1/C4/1000</f>
         <v>10</v>
@@ -7771,7 +7836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <f xml:space="preserve"> 1/C5/1000</f>
         <v>10</v>
@@ -7793,7 +7858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <f xml:space="preserve"> 1/C6/1000</f>
         <v>10</v>
@@ -7815,7 +7880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <f xml:space="preserve"> 1/C7/1000</f>
         <v>21.25</v>
@@ -7851,19 +7916,19 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" style="11"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>62</v>
@@ -7877,7 +7942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -7904,7 +7969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7933,7 +7998,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7955,7 +8020,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7970,7 +8035,7 @@
         <v>32.768000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7982,7 +8047,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7998,7 +8063,7 @@
         <v>8.0566406249999996E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -8010,7 +8075,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -8019,7 +8084,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -8034,7 +8099,7 @@
         <v>186777.60000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" s="14" t="s">
         <v>60</v>
       </c>
@@ -8046,7 +8111,7 @@
         <v>3276800</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" s="14" t="s">
         <v>64</v>
       </c>
@@ -8054,7 +8119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" s="14" t="s">
         <v>61</v>
       </c>
@@ -8067,7 +8132,7 @@
         <v>136533.33333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" s="14" t="s">
         <v>68</v>
       </c>
@@ -8080,7 +8145,7 @@
         <v>4631.5789473684199</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" s="14" t="s">
         <v>69</v>
       </c>
@@ -8093,7 +8158,7 @@
         <v>4631.5789473684199</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="14" t="s">
         <v>70</v>
       </c>
@@ -8106,13 +8171,13 @@
         <v>4631.5789473684199</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>-15</v>
       </c>
@@ -8121,7 +8186,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>-10</v>
       </c>
@@ -8130,7 +8195,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>80</v>
       </c>
@@ -8150,7 +8215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>85</v>
       </c>
@@ -8173,7 +8238,7 @@
         <v>571.90947953777777</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H26">
         <v>360</v>
       </c>
@@ -8190,7 +8255,7 @@
         <v>205887.4126336</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I27">
         <v>1</v>
       </c>
@@ -8199,7 +8264,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>95</v>
       </c>
@@ -8207,7 +8272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>-15</v>
       </c>
@@ -8216,7 +8281,7 @@
         <v>3456.1349999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>-10</v>
       </c>
@@ -8225,7 +8290,7 @@
         <v>3307.29</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>80</v>
       </c>
@@ -8234,7 +8299,7 @@
         <v>628.07999999999993</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>85</v>
       </c>
@@ -8243,7 +8308,7 @@
         <v>479.23500000000013</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -8252,7 +8317,7 @@
         <v>2116.5299999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>25</v>
       </c>
@@ -8261,7 +8326,7 @@
         <v>2265.375</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>40</v>
       </c>
@@ -8270,7 +8335,7 @@
         <v>1818.84</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>35</v>
       </c>

--- a/DOC/Calculators.xlsx
+++ b/DOC/Calculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ED1A9A-28D1-4DA7-B581-93040B873786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA38B9-FA08-44A3-96D5-BDBB41A06EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1995" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svpwm (2)" sheetId="5" r:id="rId1"/>
@@ -7470,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F99A5-AB2E-4DE6-853D-CE63A2CC0E0E}">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7823,10 +7823,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B8E5E-34F3-46C0-9825-91320DD6B96F}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8199,7 +8199,7 @@
         <v>-10</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C36" si="0">-29.769*B30+3009.6</f>
+        <f t="shared" ref="C30:C38" si="0">-29.769*B30+3009.6</f>
         <v>3307.29</v>
       </c>
     </row>
@@ -8250,11 +8250,29 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>1967.6849999999999</v>
+        <v>1669.9949999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>-30</v>
+      </c>
+      <c r="C37">
+        <f>-29.769*B37+3009.6</f>
+        <v>3902.67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>-35</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4051.5149999999999</v>
       </c>
     </row>
   </sheetData>
